--- a/public/templates/NHWA_Module_4.xlsx
+++ b/public/templates/NHWA_Module_4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\NHWA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC305DF3-5434-44D3-AEA1-0AFACBBD8EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="00mPT5B+lpZTRBxmY4XFmF1Rr9DzXSm7IUbuVJNXHeAUGZ0YazotlzCz5Ixco2/eDh1PjJ25045bDVto6ntN2w==" workbookSaltValue="WkyiyUBw4enmqFgJ1ZUWXg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66E85B3-C07F-44DF-A4DF-6AE5D91858CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hdbHYsv9D5ux8TWzEuNZhfcCIeqeqwXmkMvdPAuwzdRmiC8Jp9araUY983fUlHtAhM/kjJMzatCIH1fkGQ/EGg==" workbookSaltValue="Lexgd484WH3EjKwV265pKA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,384 @@
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
     <sheet name="Cost per program" sheetId="2" r:id="rId2"/>
     <sheet name="Lifelong Learning" sheetId="6" r:id="rId3"/>
+    <sheet name="Validation" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Metadata" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_a0Tb0vzKk1m">Metadata!$C$158</definedName>
+    <definedName name="_A25M5muzm04">Metadata!$C$31</definedName>
+    <definedName name="_aBpbcEgtzgw">Metadata!$C$52</definedName>
+    <definedName name="_ABubevCpjCV">Metadata!$C$71</definedName>
+    <definedName name="_ACalScnrl2I">Metadata!$C$239</definedName>
+    <definedName name="_Adzexk8xbzD">Metadata!$C$374</definedName>
+    <definedName name="_AFIorEPU00q">Metadata!$C$160</definedName>
+    <definedName name="_Ai5BPQQvz1k">Metadata!$C$86</definedName>
+    <definedName name="_AJBfDthkySs">Metadata!$C$149</definedName>
+    <definedName name="_AjeCGGb8H76">Metadata!$C$143</definedName>
+    <definedName name="_Ajnw1b8m6eL">Metadata!$C$252</definedName>
+    <definedName name="_ALBRKpJsddQ">Metadata!$C$56</definedName>
+    <definedName name="_aNIrqpwcKXv">Metadata!$C$353</definedName>
+    <definedName name="_apVWLKfARpb">Metadata!$C$215</definedName>
+    <definedName name="_AUStREIxT4s">Metadata!$C$213</definedName>
+    <definedName name="_av3fkpFxEXj">Metadata!$C$365</definedName>
+    <definedName name="_AYWCbVecRKQ">Metadata!$C$360</definedName>
+    <definedName name="_aZ7Bm5L90rn">Metadata!$C$303</definedName>
+    <definedName name="_AZdPnw0b1lm">Metadata!$C$118</definedName>
+    <definedName name="_B4iWc3gcDcn">Metadata!$C$262</definedName>
+    <definedName name="_B9p76UEP9T6">Metadata!$C$92</definedName>
+    <definedName name="_Bc3mYAhlY1a">Metadata!$C$219</definedName>
+    <definedName name="_bcy4159FETR">Metadata!$C$246</definedName>
+    <definedName name="_BGi4lPgaJ07">Metadata!$C$46</definedName>
+    <definedName name="_bGWaeVBrOcc">Metadata!$C$146</definedName>
+    <definedName name="_bhkJDAiqVKX">Metadata!$C$209</definedName>
+    <definedName name="_BlC8wOVHBlb">Metadata!$C$304</definedName>
+    <definedName name="_BLpPqpMtgQY">Metadata!$C$194</definedName>
+    <definedName name="_BMJGeU5QjPU">Metadata!$C$6</definedName>
+    <definedName name="_BmTVMvJHVBO">Metadata!$C$248</definedName>
+    <definedName name="_bnQX2QIuIY9">Metadata!$C$190</definedName>
+    <definedName name="_Bon3xyAAWKf">Metadata!$C$256</definedName>
+    <definedName name="_buSEeeViTo3">Metadata!$C$373</definedName>
+    <definedName name="_BUVRp4Q2zi7">Metadata!$C$63</definedName>
+    <definedName name="_bvyjEfI0d2V">Metadata!$C$237</definedName>
+    <definedName name="_BVzmce6DVeS">Metadata!$C$203</definedName>
+    <definedName name="_ByPnGTyTmYa">Metadata!$C$85</definedName>
+    <definedName name="_c82mDnhUQly">Metadata!$C$137</definedName>
+    <definedName name="_cCgL3J7Lsgn">Metadata!$C$319</definedName>
+    <definedName name="_CCl7hAqlrmE">Metadata!$C$175</definedName>
+    <definedName name="_cfBaKMnsXd1">Metadata!$C$278</definedName>
+    <definedName name="_CIP5YUBl5Hj">Metadata!$C$35</definedName>
+    <definedName name="_cJU4qStc9QT">Metadata!$C$339</definedName>
+    <definedName name="_COs48yLdDvg">Metadata!$C$270</definedName>
+    <definedName name="_cpmmPDsQ3uG">Metadata!$C$134</definedName>
+    <definedName name="_CpV0L0Y9i9h">Metadata!$C$99</definedName>
+    <definedName name="_cRWrIpjzvVl">Metadata!$C$207</definedName>
+    <definedName name="_CVlyw498LdE">Metadata!$C$37</definedName>
+    <definedName name="_cWrL45je7mw">Metadata!$C$119</definedName>
+    <definedName name="_cZ8823L0fLJ">Metadata!$C$259</definedName>
+    <definedName name="_D4JnxOsqwE4">Metadata!$C$240</definedName>
+    <definedName name="_DMyxTSpvKOp">Metadata!$C$44</definedName>
+    <definedName name="_dNLjKwsVjod">Metadata!$C$126</definedName>
+    <definedName name="_dpcvWc01CeN">Metadata!$C$139</definedName>
+    <definedName name="_dscgTvwyCw8">Metadata!$C$147</definedName>
+    <definedName name="_DVnpk4xiXGJ">Metadata!$C$327</definedName>
+    <definedName name="_DzAOqCf0ots">Metadata!$C$131</definedName>
+    <definedName name="_E9G2aQpCs1A">Metadata!$C$200</definedName>
+    <definedName name="_e9IoKRAkYLO">Metadata!$C$122</definedName>
+    <definedName name="_EB4aSZN0eQr">Metadata!$C$255</definedName>
+    <definedName name="_EDHO4qOyY88">Metadata!$C$174</definedName>
+    <definedName name="_edXHAi8SvxC">Metadata!$C$96</definedName>
+    <definedName name="_EfAbB5kdjLD">Metadata!$C$80</definedName>
+    <definedName name="_egJEs4lCHsI">Metadata!$C$32</definedName>
+    <definedName name="_EGLpIMSAWhx">Metadata!$C$195</definedName>
+    <definedName name="_Eh8fZEewQLs">Metadata!$C$83</definedName>
+    <definedName name="_ehNfKt5LpG9">Metadata!$C$225</definedName>
+    <definedName name="_eHX3CD9w5XG">Metadata!$C$29</definedName>
+    <definedName name="_EI6IOp5v4dR">Metadata!$C$18</definedName>
+    <definedName name="_ElwEWppmGgv">Metadata!$C$227</definedName>
+    <definedName name="_er7MPiN3tdH">Metadata!$C$328</definedName>
+    <definedName name="_EubjsxqlA4d">Metadata!$C$250</definedName>
+    <definedName name="_eUq1frRqp4E">Metadata!$C$104</definedName>
+    <definedName name="_eVEK7djdWqV">Metadata!$C$345</definedName>
+    <definedName name="_eVp1pvRfPKS">Metadata!$C$366</definedName>
+    <definedName name="_eyvitcZL4ex">Metadata!$C$204</definedName>
+    <definedName name="_f4ZFD2aswys">Metadata!$C$116</definedName>
+    <definedName name="_false">Metadata!$C$376</definedName>
+    <definedName name="_FFmtJFFISjz">Metadata!$C$4</definedName>
+    <definedName name="_fg8TSIHSGHX">Metadata!$C$197</definedName>
+    <definedName name="_fGOgbIqsxDn">Metadata!$C$60</definedName>
+    <definedName name="_fHaKXfcKthe">Metadata!$C$289</definedName>
+    <definedName name="_FhipFemkCD6">Metadata!$C$28</definedName>
+    <definedName name="_fHXW26zg2U6">Metadata!$C$223</definedName>
+    <definedName name="_Fi5lLVwe1Th">Metadata!$C$182</definedName>
+    <definedName name="_fIlPGTXBCUm">Metadata!$C$371</definedName>
+    <definedName name="_FiRcnmXF1Yg">Metadata!$C$82</definedName>
+    <definedName name="_fkrzFaeuYDn">Metadata!$C$364</definedName>
+    <definedName name="_fKYrObreb5w">Metadata!$C$100</definedName>
+    <definedName name="_FM20fzfsNov">Metadata!$C$11</definedName>
+    <definedName name="_FNduj2N3e8s">Metadata!$C$311</definedName>
+    <definedName name="_FOJUXD6f6lB">Metadata!$C$249</definedName>
+    <definedName name="_FpVMaxDKMvc">Metadata!$C$13</definedName>
+    <definedName name="_Fq9qs6Kn6wN">Metadata!$C$201</definedName>
+    <definedName name="_FQpontg7YBJ">Metadata!$C$15</definedName>
+    <definedName name="_FUieyovDec8">Metadata!$C$322</definedName>
+    <definedName name="_fXxS36qL9Vt">Metadata!$C$10</definedName>
+    <definedName name="_fYeClLy8K2x">Metadata!$C$343</definedName>
+    <definedName name="_G037PAPU5dO">Metadata!$C$247</definedName>
+    <definedName name="_G3thRWUQAX9">Metadata!$C$185</definedName>
+    <definedName name="_g49fuSiB623">Metadata!$C$218</definedName>
+    <definedName name="_G8FCnT37gyb">Metadata!$C$281</definedName>
+    <definedName name="_G9o5ad4oJJX">Metadata!$C$212</definedName>
+    <definedName name="_Gan3VYicAWe">Metadata!$C$264</definedName>
+    <definedName name="_gb7vWtO7Wjp">Metadata!$C$372</definedName>
+    <definedName name="_gg9DH7dvdeD">Metadata!$C$206</definedName>
+    <definedName name="_GiBQXRxrLJ9">Metadata!$C$40</definedName>
+    <definedName name="_gkUPDzkiV1L">Metadata!$C$105</definedName>
+    <definedName name="_gMz0MxjZcEt">Metadata!$C$243</definedName>
+    <definedName name="_Gnz4lqrVEMf">Metadata!$C$354</definedName>
+    <definedName name="_go9xficYy4f">Metadata!$C$26</definedName>
+    <definedName name="_GPyOOoIby8R">Metadata!$C$302</definedName>
+    <definedName name="_GrU8zQv510v">Metadata!$C$348</definedName>
+    <definedName name="_GrzcLgIHx9h">Metadata!$C$49</definedName>
+    <definedName name="_gT8LDQDh2wc">Metadata!$C$84</definedName>
+    <definedName name="_Gvox4WmLiYC">Metadata!$C$357</definedName>
+    <definedName name="_GWQBgBHdbbp">Metadata!$C$231</definedName>
+    <definedName name="_gxi9jcBYyrL">Metadata!$C$238</definedName>
+    <definedName name="_h93FZvJnB12">Metadata!$C$34</definedName>
+    <definedName name="_HDN85xUGB65">Metadata!$C$335</definedName>
+    <definedName name="_HfVjCurKxh2">Metadata!$C$233</definedName>
+    <definedName name="_hG1CNbw8wSF">Metadata!$C$272</definedName>
+    <definedName name="_hgGOTFYZxMO">Metadata!$C$199</definedName>
+    <definedName name="_HizhPCC5Ps5">Metadata!$C$315</definedName>
+    <definedName name="_hmZE3mVAZFf">Metadata!$C$144</definedName>
+    <definedName name="_hNld16i4Kfj">Metadata!$C$7</definedName>
+    <definedName name="_hpXoMVtJpT3">Metadata!$C$309</definedName>
+    <definedName name="_HQPWV8cT7li">Metadata!$C$58</definedName>
+    <definedName name="_HtZb6Cg7TXo">Metadata!$C$48</definedName>
+    <definedName name="_hUqp2FZFNGA">Metadata!$C$30</definedName>
+    <definedName name="_HwqfuL9pQz5">Metadata!$C$346</definedName>
+    <definedName name="_HX7fBSMCCbL">Metadata!$C$370</definedName>
+    <definedName name="_hX8mkbMyp0O">Metadata!$C$102</definedName>
+    <definedName name="_hx9b4UVGIgW">Metadata!$C$55</definedName>
+    <definedName name="_HYEuE8zV74t">Metadata!$C$307</definedName>
+    <definedName name="_I3NxIqG7bD4">Metadata!$C$275</definedName>
+    <definedName name="_i3v8r9XNls2">Metadata!$C$298</definedName>
+    <definedName name="_I93t0K7b1oN">Metadata!$C$70</definedName>
+    <definedName name="_IbGbsybdeou">Metadata!$C$294</definedName>
+    <definedName name="_ibGsqmiVkoU">Metadata!$C$232</definedName>
+    <definedName name="_ie5rMMLaKoX">Metadata!$C$3</definedName>
+    <definedName name="_IFAb1JUZ0Fz">Metadata!$C$333</definedName>
+    <definedName name="_iFaKKDtb7nf">Metadata!$C$283</definedName>
+    <definedName name="_IjLnDADGraQ">Metadata!$C$330</definedName>
+    <definedName name="_iNT35p3jsEM">Metadata!$C$127</definedName>
+    <definedName name="_ipe4pT2TW7G">Metadata!$C$214</definedName>
+    <definedName name="_iWRW6jXAzvP">Metadata!$C$50</definedName>
+    <definedName name="_IZSm5iPKkDg">Metadata!$C$260</definedName>
+    <definedName name="_IZy3ESdFnp5">Metadata!$C$205</definedName>
+    <definedName name="_jCtFxm8aADJ">Metadata!$C$293</definedName>
+    <definedName name="_JEHwU064LAj">Metadata!$C$241</definedName>
+    <definedName name="_jFOZHDZpjPL">Metadata!$C$115</definedName>
+    <definedName name="_JI5lagoUJR4">Metadata!$C$229</definedName>
+    <definedName name="_JIr15Xt3EQn">Metadata!$C$180</definedName>
+    <definedName name="_jjQ3g4UJ88h">Metadata!$C$77</definedName>
+    <definedName name="_jkyBvNzcTLl">Metadata!$C$331</definedName>
+    <definedName name="_jMGr96nGwHN">Metadata!$C$271</definedName>
+    <definedName name="_JQ5qF3mRCMe">Metadata!$C$133</definedName>
+    <definedName name="_juBxu3AprlM">Metadata!$C$368</definedName>
+    <definedName name="_jVqoXv7rFns">Metadata!$C$221</definedName>
+    <definedName name="_JX7HJfPfbog">Metadata!$C$261</definedName>
+    <definedName name="_jXQq22U4Y2e">Metadata!$C$161</definedName>
+    <definedName name="_jZOt27rWre8">Metadata!$C$216</definedName>
+    <definedName name="_JzvGfLYkX17">Metadata!$C$38</definedName>
+    <definedName name="_k31vRXPe1UA">Metadata!$C$27</definedName>
+    <definedName name="_K4qTZe26KoX">Metadata!$C$75</definedName>
+    <definedName name="_K5u7PTVJDz9">Metadata!$C$109</definedName>
+    <definedName name="_KAUSOoBq5Ft">Metadata!$C$257</definedName>
+    <definedName name="_KKBsggVfCTv">Metadata!$C$93</definedName>
+    <definedName name="_KOUhvjWIy6V">Metadata!$C$359</definedName>
+    <definedName name="_kpFgAwwSjCZ">Metadata!$C$362</definedName>
+    <definedName name="_KqaTbKanCG3">Metadata!$C$276</definedName>
+    <definedName name="_KrU8C1YTdao">Metadata!$C$367</definedName>
+    <definedName name="_KwgjnBBpe5b">Metadata!$C$129</definedName>
+    <definedName name="_KyFesytPvpt">Metadata!$C$94</definedName>
+    <definedName name="_KzzMv68cifG">Metadata!$C$22</definedName>
+    <definedName name="_LAPR4Iu2NVS">Metadata!$C$179</definedName>
+    <definedName name="_lbMrRSBsXh3">Metadata!$C$166</definedName>
+    <definedName name="_LbWpsX1FJcC">Metadata!$C$121</definedName>
+    <definedName name="_lGN2n7pZ6Ua">Metadata!$C$157</definedName>
+    <definedName name="_LHbCtHlZr3Y">Metadata!$C$62</definedName>
+    <definedName name="_LiIAZRiHerP">Metadata!$C$9</definedName>
+    <definedName name="_lkkfEeCynHP">Metadata!$C$91</definedName>
+    <definedName name="_lKZR6UK0afN">Metadata!$C$120</definedName>
+    <definedName name="_lnvESj20mWZ">Metadata!$C$258</definedName>
+    <definedName name="_LTLHCOHyyWS">Metadata!$C$300</definedName>
+    <definedName name="_lVPoUAKCdmU">Metadata!$C$324</definedName>
+    <definedName name="_M9HrCkIwaKy">Metadata!$C$349</definedName>
+    <definedName name="_Mb9IYOFZYCv">Metadata!$C$169</definedName>
+    <definedName name="_mDSuyD9lOM5">Metadata!$C$217</definedName>
+    <definedName name="_mfxqh0f3rkf">Metadata!$C$36</definedName>
+    <definedName name="_mhWSEv79IJW">Metadata!$C$326</definedName>
+    <definedName name="_MJEntShoQVK">Metadata!$C$142</definedName>
+    <definedName name="_Mk7P920hkBa">Metadata!$C$181</definedName>
+    <definedName name="_mmJUi0PpvGi">Metadata!$C$245</definedName>
+    <definedName name="_mNa42CHbkO7">Metadata!$C$112</definedName>
+    <definedName name="_MPzyVWiSFF2">Metadata!$C$68</definedName>
+    <definedName name="_mQh8RpY2ccw">Metadata!$C$25</definedName>
+    <definedName name="_MvuXjeV6YKr">Metadata!$C$88</definedName>
+    <definedName name="_myv7amOYTHn">Metadata!$C$155</definedName>
+    <definedName name="_N53ac2J5cmY">Metadata!$C$73</definedName>
+    <definedName name="_n8iofJiiX4T">Metadata!$C$136</definedName>
+    <definedName name="_N9i1v07Ro0E">Metadata!$C$297</definedName>
+    <definedName name="_nC5KZyWITGC">Metadata!$C$57</definedName>
+    <definedName name="_ncopO2Sj2RB">Metadata!$C$90</definedName>
+    <definedName name="_ngUSWwX0Oby">Metadata!$C$188</definedName>
+    <definedName name="_NhuW760cOQG">Metadata!$C$171</definedName>
+    <definedName name="_Nlv8oKkoAwp">Metadata!$C$234</definedName>
+    <definedName name="_Nrnay4JA8Ga">Metadata!$C$130</definedName>
+    <definedName name="_NUkOvK4bnj2">Metadata!$C$210</definedName>
+    <definedName name="_O0hWoXlHhIS">Metadata!$C$274</definedName>
+    <definedName name="_O7BGyJhV2Tc">Metadata!$C$277</definedName>
+    <definedName name="_OFXJXWnOG0R">Metadata!$C$173</definedName>
+    <definedName name="_oofyLUJJ6Vy">Metadata!$C$110</definedName>
+    <definedName name="_oroMC4mMzMq">Metadata!$C$314</definedName>
+    <definedName name="_oWNF4d3PK8C">Metadata!$C$323</definedName>
+    <definedName name="_oy494aJtjTB">Metadata!$C$280</definedName>
+    <definedName name="_p7nN8h3drrz">Metadata!$C$53</definedName>
+    <definedName name="_pbH6bmcioGw">Metadata!$C$165</definedName>
+    <definedName name="_PevCwH17M73">Metadata!$C$291</definedName>
+    <definedName name="_PFAtPR87fHs">Metadata!$C$140</definedName>
+    <definedName name="_pfhvgmllA9M">Metadata!$C$117</definedName>
+    <definedName name="_pGLy2Zj2lVg">Metadata!$C$338</definedName>
+    <definedName name="_phnE76RjYz8">Metadata!$C$39</definedName>
+    <definedName name="_PJS910L8KtX">Metadata!$C$361</definedName>
+    <definedName name="_pL6jJhifUxq">Metadata!$C$98</definedName>
+    <definedName name="_pMukkUmnnkh">Metadata!$C$344</definedName>
+    <definedName name="_PpjdOoVUc7k">Metadata!$C$178</definedName>
+    <definedName name="_PRrdILmQQb3">Metadata!$C$187</definedName>
+    <definedName name="_PvrMV4NjbtR">Metadata!$C$369</definedName>
+    <definedName name="_PY4aKgi30fr">Metadata!$C$321</definedName>
+    <definedName name="_Pz0LCggcqES">Metadata!$C$267</definedName>
+    <definedName name="_pZZriU4sY0l">Metadata!$C$268</definedName>
+    <definedName name="_q23bFLr2E5D">Metadata!$C$154</definedName>
+    <definedName name="_q2HqXV5OO3z">Metadata!$C$334</definedName>
+    <definedName name="_Q8De2VxoKXS">Metadata!$C$356</definedName>
+    <definedName name="_q9u7nkNkuGy">Metadata!$C$208</definedName>
+    <definedName name="_qbqrFLCJewu">Metadata!$C$317</definedName>
+    <definedName name="_qJgX0mO3ph7">Metadata!$C$65</definedName>
+    <definedName name="_QKhM7ublqzd">Metadata!$C$76</definedName>
+    <definedName name="_QkOClVdLto1">Metadata!$C$288</definedName>
+    <definedName name="_QLERXr2o7IE">Metadata!$C$193</definedName>
+    <definedName name="_qLiR6JcUdmr">Metadata!$C$5</definedName>
+    <definedName name="_QqAzWHtJ8VC">Metadata!$C$329</definedName>
+    <definedName name="_QSpLidCdqMU">Metadata!$C$168</definedName>
+    <definedName name="_quQpOfBIDFC">Metadata!$C$211</definedName>
+    <definedName name="_qwZoBgLRrQf">Metadata!$C$16</definedName>
+    <definedName name="_rb6V38jgfFc">Metadata!$C$318</definedName>
+    <definedName name="_rbmrIWEJriN">Metadata!$C$47</definedName>
+    <definedName name="_RDiXMdNXg16">Metadata!$C$320</definedName>
+    <definedName name="_rEQqufy2KNi">Metadata!$C$269</definedName>
+    <definedName name="_Ri2tb7LBVtP">Metadata!$C$198</definedName>
+    <definedName name="_Rmy6DbwekE1">Metadata!$C$114</definedName>
+    <definedName name="_Rr4F4xljMoJ">Metadata!$C$69</definedName>
+    <definedName name="_RTdjvXHJdnH">Metadata!$C$162</definedName>
+    <definedName name="_rtLnlu4GUI2">Metadata!$C$266</definedName>
+    <definedName name="_Rx0MR32LJoK">Metadata!$C$8</definedName>
+    <definedName name="_RXvXdRNbmnw">Metadata!$C$95</definedName>
+    <definedName name="_RyAd6laKg3U">Metadata!$C$305</definedName>
+    <definedName name="_s1mzBU7YOaZ">Metadata!$C$177</definedName>
+    <definedName name="_S52uSY3lb8V">Metadata!$C$358</definedName>
+    <definedName name="_SAsS1Kwc4iW">Metadata!$C$310</definedName>
+    <definedName name="_sg5v6c9tCZ3">Metadata!$C$138</definedName>
+    <definedName name="_sheLJvWR2SR">Metadata!$C$89</definedName>
+    <definedName name="_shRXArPWh8H">Metadata!$C$163</definedName>
+    <definedName name="_Snhh7MxvJ09">Metadata!$C$106</definedName>
+    <definedName name="_sNmNyudrFxw">Metadata!$C$33</definedName>
+    <definedName name="_SnYHrnchKjL">Metadata!$C$351</definedName>
+    <definedName name="_SsAjVE1S87E">Metadata!$C$222</definedName>
+    <definedName name="_sSIYRwB1r74">Metadata!$C$189</definedName>
+    <definedName name="_ST86paYjRHP">Metadata!$C$123</definedName>
+    <definedName name="_T1irZBQ9gNW">Metadata!$C$244</definedName>
+    <definedName name="_T6CoTrwDx30">Metadata!$C$24</definedName>
+    <definedName name="_t6z9en1VZ6i">Metadata!$C$41</definedName>
+    <definedName name="_T7tKHiW1Db1">Metadata!$C$125</definedName>
+    <definedName name="_tDFavWinSwr">Metadata!$C$236</definedName>
+    <definedName name="_TIhakAVsQwM">Metadata!$C$251</definedName>
+    <definedName name="_TldYkeCwb5r">Metadata!$C$164</definedName>
+    <definedName name="_tnTRnfd2aVs">Metadata!$C$235</definedName>
+    <definedName name="_TpDwlm2Spev">Metadata!$C$355</definedName>
+    <definedName name="_Tr4i6jeDDqj">Metadata!$C$128</definedName>
+    <definedName name="_true">Metadata!$C$375</definedName>
+    <definedName name="_tSBEjAHKj9V">Metadata!$C$306</definedName>
+    <definedName name="_tsRGEPI6G9W">Metadata!$C$23</definedName>
+    <definedName name="_tV0rWhHr9cj">Metadata!$C$152</definedName>
+    <definedName name="_TWyMjVaaxmT">Metadata!$C$332</definedName>
+    <definedName name="_txxKPnVUGvV">Metadata!$C$81</definedName>
+    <definedName name="_U0Q8rlyIf0L">Metadata!$C$79</definedName>
+    <definedName name="_u3GOCB1Hu01">Metadata!$C$150</definedName>
+    <definedName name="_u7H4MyT2Y0A">Metadata!$C$141</definedName>
+    <definedName name="_ubaFJwugepq">Metadata!$C$97</definedName>
+    <definedName name="_UbXO8Hq562j">Metadata!$C$64</definedName>
+    <definedName name="_ueq331C93KZ">Metadata!$C$20</definedName>
+    <definedName name="_uEqspl3rRlH">Metadata!$C$17</definedName>
+    <definedName name="_UIvoFr5u26F">Metadata!$C$101</definedName>
+    <definedName name="_UJVEh0g7qOo">Metadata!$C$192</definedName>
+    <definedName name="_UlQiEogy3wG">Metadata!$C$299</definedName>
+    <definedName name="_uOlPsNyXvty">Metadata!$C$74</definedName>
+    <definedName name="_uvTw0Kus5KZ">Metadata!$C$224</definedName>
+    <definedName name="_v2B5AtYQV8H">Metadata!$C$253</definedName>
+    <definedName name="_VbbSe7wgS9s">Metadata!$C$124</definedName>
+    <definedName name="_VbeNbk9aZpF">Metadata!$C$12</definedName>
+    <definedName name="_vboedbUs1As">Metadata!$C$337</definedName>
+    <definedName name="_Vfcyfxgs9DR">Metadata!$C$43</definedName>
+    <definedName name="_vg4b11FL2Gl">Metadata!$C$347</definedName>
+    <definedName name="_VGOzFKfSazN">Metadata!$C$111</definedName>
+    <definedName name="_VGwyxy87JTn">Metadata!$C$21</definedName>
+    <definedName name="_VJrTuNXAg9G">Metadata!$C$352</definedName>
+    <definedName name="_vkXlj7ZPkGi">Metadata!$C$287</definedName>
+    <definedName name="_VMqDEughMuP">Metadata!$C$341</definedName>
+    <definedName name="_vnbnnSZXGTv">Metadata!$C$183</definedName>
+    <definedName name="_VnTycSnraEY">Metadata!$C$191</definedName>
+    <definedName name="_VPesUmegQpP">Metadata!$C$148</definedName>
+    <definedName name="_vPoFz9J1v6Y">Metadata!$C$279</definedName>
+    <definedName name="_VtVkbvygJnm">Metadata!$C$61</definedName>
+    <definedName name="_VwqhqUCaMgk">Metadata!$C$301</definedName>
+    <definedName name="_VYVKdqiXo4b">Metadata!$C$113</definedName>
+    <definedName name="_w3IJVQhc8Rm">Metadata!$C$292</definedName>
+    <definedName name="_WApLDd37Yj2">Metadata!$C$220</definedName>
+    <definedName name="_WC5rU5fLMzY">Metadata!$C$202</definedName>
+    <definedName name="_wEZFwERd9D9">Metadata!$C$42</definedName>
+    <definedName name="_wFkq5oB0dFS">Metadata!$C$350</definedName>
+    <definedName name="_wimH12ukPK5">Metadata!$C$316</definedName>
+    <definedName name="_wj7iV08dvFq">Metadata!$C$313</definedName>
+    <definedName name="_wJfQhJWdeLX">Metadata!$C$66</definedName>
+    <definedName name="_wMTP4GblKr8">Metadata!$C$290</definedName>
+    <definedName name="_wNJfYD50ZVE">Metadata!$C$72</definedName>
+    <definedName name="_wnuoeS9sVZR">Metadata!$C$273</definedName>
+    <definedName name="_woIm3nuS3mM">Metadata!$C$67</definedName>
+    <definedName name="_Wpzccx0vjIP">Metadata!$C$286</definedName>
+    <definedName name="_WtcZBCTspgM">Metadata!$C$340</definedName>
+    <definedName name="_wUBWZEHJm6Q">Metadata!$C$284</definedName>
+    <definedName name="_WuQvgvXKamv">Metadata!$C$263</definedName>
+    <definedName name="_WvBALLQ0kGe">Metadata!$C$45</definedName>
+    <definedName name="_WXGcnQWJ0Qd">Metadata!$C$172</definedName>
+    <definedName name="_wyKC2eWRH3y">Metadata!$C$135</definedName>
+    <definedName name="_x6DVvicRjYC">Metadata!$C$228</definedName>
+    <definedName name="_xb2ezJcUoSR">Metadata!$C$336</definedName>
+    <definedName name="_xB6nQN5Wtpg">Metadata!$C$312</definedName>
+    <definedName name="_XebDUbuPqVx">Metadata!$C$226</definedName>
+    <definedName name="_XeWqwCw9G5s">Metadata!$C$184</definedName>
+    <definedName name="_Xgr3PJxcWfJ">Metadata!$C$54</definedName>
+    <definedName name="_XiMIOSJ0d3c">Metadata!$C$103</definedName>
+    <definedName name="_XjHXb0aFH5w">Metadata!$C$159</definedName>
+    <definedName name="_XJscL6IuHpd">Metadata!$C$230</definedName>
+    <definedName name="_Xk2VSbmqs44">Metadata!$C$51</definedName>
+    <definedName name="_XKKI1hhyFxk">Metadata!$C$170</definedName>
+    <definedName name="_xqjIL1cGrl1">Metadata!$C$363</definedName>
+    <definedName name="_Xr12mI7VPn3">Metadata!$C$78</definedName>
+    <definedName name="_XYpsN5j30R9">Metadata!$C$254</definedName>
+    <definedName name="_Xz7rnovuiOx">Metadata!$C$145</definedName>
+    <definedName name="_y582ESg0Vjo">Metadata!$C$156</definedName>
+    <definedName name="_Y7EAGQA1bfv">Metadata!$C$59</definedName>
+    <definedName name="_Y7fcspgsU43">Metadata!$C$87</definedName>
+    <definedName name="_yBqy4nxuOCA">Metadata!$C$295</definedName>
+    <definedName name="_Ybz3qUCWYKC">Metadata!$C$19</definedName>
+    <definedName name="_Yg9QkNQk9p7">Metadata!$C$176</definedName>
+    <definedName name="_YOL13ptz4ef">Metadata!$C$265</definedName>
+    <definedName name="_yp7OM2HDp2q">Metadata!$C$107</definedName>
+    <definedName name="_yzAMOdV0Pmr">Metadata!$C$282</definedName>
+    <definedName name="_z51rgcc5R8V">Metadata!$C$196</definedName>
+    <definedName name="_z5ouOuycTPO">Metadata!$C$325</definedName>
+    <definedName name="_Z6Wd8wiIAfz">Metadata!$C$14</definedName>
+    <definedName name="_zaluKz5Llai">Metadata!$C$242</definedName>
+    <definedName name="_Zav7juzGmEo">Metadata!$C$285</definedName>
+    <definedName name="_ZcrjvJaYQb7">Metadata!$C$151</definedName>
+    <definedName name="_Zdl3ad7PayF">Metadata!$C$167</definedName>
+    <definedName name="_zEYrsiNUGIo">Metadata!$C$186</definedName>
+    <definedName name="_zFInPJBZVbN">Metadata!$C$153</definedName>
+    <definedName name="_ZgsdoEiTlLq">Metadata!$C$308</definedName>
+    <definedName name="_ZPpJ9xeJN6C">Metadata!$C$108</definedName>
+    <definedName name="_ZRxKEGQmkWI">Metadata!$C$296</definedName>
+    <definedName name="_zYQqFxQw5jj">Metadata!$C$342</definedName>
+    <definedName name="_ZzoDfdWIt6z">Metadata!$C$132</definedName>
     <definedName name="dropdownlist">Finance!$AE$2:INDEX(Finance!$AE$2:$AE$250,MAX(Finance!$AD$2:$AD$250),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,7 +402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1084">
   <si>
     <t>REGION:</t>
   </si>
@@ -2312,9 +2688,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Others</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">    General Medical Practitioners</t>
@@ -2376,12 +2749,6 @@
     <t>Total expenditure on higher education (including for non-health sectors) (4-01)</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -2608,6 +2975,687 @@
   </si>
   <si>
     <t>NHWA_MODULE_4_v1</t>
+  </si>
+  <si>
+    <t>True only</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Periods</t>
+  </si>
+  <si>
+    <t>Organisation Units</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>organisationUnit</t>
+  </si>
+  <si>
+    <t>categoryOptions</t>
+  </si>
+  <si>
+    <t>K5u7PTVJDz9</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
+    <t>ZPpJ9xeJN6C</t>
+  </si>
+  <si>
+    <t>General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>yp7OM2HDp2q</t>
+  </si>
+  <si>
+    <t>Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>Snhh7MxvJ09</t>
+  </si>
+  <si>
+    <t>Pre-service training</t>
+  </si>
+  <si>
+    <t>gkUPDzkiV1L</t>
+  </si>
+  <si>
+    <t>eUq1frRqp4E</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>XiMIOSJ0d3c</t>
+  </si>
+  <si>
+    <t>Obstetricians and Gynaecologists Practitioner</t>
+  </si>
+  <si>
+    <t>hX8mkbMyp0O</t>
+  </si>
+  <si>
+    <t>Surgical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>UIvoFr5u26F</t>
+  </si>
+  <si>
+    <t>Psychiatrists Practitioner</t>
+  </si>
+  <si>
+    <t>fKYrObreb5w</t>
+  </si>
+  <si>
+    <t>Midwifery Professional</t>
+  </si>
+  <si>
+    <t>CpV0L0Y9i9h</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>pL6jJhifUxq</t>
+  </si>
+  <si>
+    <t>Other Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>ubaFJwugepq</t>
+  </si>
+  <si>
+    <t>Medical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>edXHAi8SvxC</t>
+  </si>
+  <si>
+    <t>In-service training</t>
+  </si>
+  <si>
+    <t>RXvXdRNbmnw</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>KyFesytPvpt</t>
+  </si>
+  <si>
+    <t>KKBsggVfCTv</t>
+  </si>
+  <si>
+    <t>B9p76UEP9T6</t>
+  </si>
+  <si>
+    <t>Out of Pocket</t>
+  </si>
+  <si>
+    <t>lkkfEeCynHP</t>
+  </si>
+  <si>
+    <t>Nursing Professional</t>
+  </si>
+  <si>
+    <t>ncopO2Sj2RB</t>
+  </si>
+  <si>
+    <t>sheLJvWR2SR</t>
+  </si>
+  <si>
+    <t>General Paediatricians Practitioner</t>
+  </si>
+  <si>
+    <t>MvuXjeV6YKr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Y7fcspgsU43</t>
+  </si>
+  <si>
+    <t>Public expenditure</t>
+  </si>
+  <si>
+    <t>Ai5BPQQvz1k</t>
+  </si>
+  <si>
+    <t>old_NHWA_Medical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>categoryOptionCombos</t>
+  </si>
+  <si>
+    <t>ByPnGTyTmYa</t>
+  </si>
+  <si>
+    <t>NHWA_Nursing Professional</t>
+  </si>
+  <si>
+    <t>gT8LDQDh2wc</t>
+  </si>
+  <si>
+    <t>NHWA_General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>Eh8fZEewQLs</t>
+  </si>
+  <si>
+    <t>old_NHWA_Out of Pocket</t>
+  </si>
+  <si>
+    <t>FiRcnmXF1Yg</t>
+  </si>
+  <si>
+    <t>old_NHWA_Others</t>
+  </si>
+  <si>
+    <t>txxKPnVUGvV</t>
+  </si>
+  <si>
+    <t>old_NHWA_Other Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>EfAbB5kdjLD</t>
+  </si>
+  <si>
+    <t>NHWA_Medical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>U0Q8rlyIf0L</t>
+  </si>
+  <si>
+    <t>Xr12mI7VPn3</t>
+  </si>
+  <si>
+    <t>NHWA_In-service training</t>
+  </si>
+  <si>
+    <t>jjQ3g4UJ88h</t>
+  </si>
+  <si>
+    <t>old_NHWA_Official Development Assistance</t>
+  </si>
+  <si>
+    <t>QKhM7ublqzd</t>
+  </si>
+  <si>
+    <t>NHWA_Other Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>K4qTZe26KoX</t>
+  </si>
+  <si>
+    <t>NHWA_Pre-service training</t>
+  </si>
+  <si>
+    <t>uOlPsNyXvty</t>
+  </si>
+  <si>
+    <t>NHWA_Surgical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>N53ac2J5cmY</t>
+  </si>
+  <si>
+    <t>old_NHWA_Psychiatrists Practitioner</t>
+  </si>
+  <si>
+    <t>wNJfYD50ZVE</t>
+  </si>
+  <si>
+    <t>old_NHWA_Obstetricians and Gynaecologists Practitioner</t>
+  </si>
+  <si>
+    <t>ABubevCpjCV</t>
+  </si>
+  <si>
+    <t>NHWA_Yes</t>
+  </si>
+  <si>
+    <t>I93t0K7b1oN</t>
+  </si>
+  <si>
+    <t>NHWA_Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>Rr4F4xljMoJ</t>
+  </si>
+  <si>
+    <t>old_NHWA_Midwifery Professional</t>
+  </si>
+  <si>
+    <t>MPzyVWiSFF2</t>
+  </si>
+  <si>
+    <t>NHWA_Medical Doctors</t>
+  </si>
+  <si>
+    <t>woIm3nuS3mM</t>
+  </si>
+  <si>
+    <t>old_NHWA_Surgical group of Specialists Practitioner</t>
+  </si>
+  <si>
+    <t>wJfQhJWdeLX</t>
+  </si>
+  <si>
+    <t>old_NHWA_General Paediatricians Practitioner</t>
+  </si>
+  <si>
+    <t>qJgX0mO3ph7</t>
+  </si>
+  <si>
+    <t>NHWA_Pharmacist</t>
+  </si>
+  <si>
+    <t>UbXO8Hq562j</t>
+  </si>
+  <si>
+    <t>NHWA_Dentist</t>
+  </si>
+  <si>
+    <t>BUVRp4Q2zi7</t>
+  </si>
+  <si>
+    <t>old_NHWA_General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>LHbCtHlZr3Y</t>
+  </si>
+  <si>
+    <t>old_NHWA_Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>VtVkbvygJnm</t>
+  </si>
+  <si>
+    <t>old_NHWA_Nursing Professional</t>
+  </si>
+  <si>
+    <t>fGOgbIqsxDn</t>
+  </si>
+  <si>
+    <t>NHWA_No</t>
+  </si>
+  <si>
+    <t>Y7EAGQA1bfv</t>
+  </si>
+  <si>
+    <t>old_NHWA_Public expenditure</t>
+  </si>
+  <si>
+    <t>HQPWV8cT7li</t>
+  </si>
+  <si>
+    <t>NHWA_Obstetricians and Gynaecologists Practitioner</t>
+  </si>
+  <si>
+    <t>nC5KZyWITGC</t>
+  </si>
+  <si>
+    <t>old_NHWA_Dentist</t>
+  </si>
+  <si>
+    <t>ALBRKpJsddQ</t>
+  </si>
+  <si>
+    <t>NHWA_Psychiatrists Practitioner</t>
+  </si>
+  <si>
+    <t>hx9b4UVGIgW</t>
+  </si>
+  <si>
+    <t>NHWA_Partial</t>
+  </si>
+  <si>
+    <t>Xgr3PJxcWfJ</t>
+  </si>
+  <si>
+    <t>NHWA_General Paediatricians Practitioner</t>
+  </si>
+  <si>
+    <t>p7nN8h3drrz</t>
+  </si>
+  <si>
+    <t>old_NHWA_Medical Doctors</t>
+  </si>
+  <si>
+    <t>aBpbcEgtzgw</t>
+  </si>
+  <si>
+    <t>NHWA_Ministry of Education</t>
+  </si>
+  <si>
+    <t>Xk2VSbmqs44</t>
+  </si>
+  <si>
+    <t>old_NHWA_Pharmacist</t>
+  </si>
+  <si>
+    <t>iWRW6jXAzvP</t>
+  </si>
+  <si>
+    <t>NHWA_Midwifery Professional</t>
+  </si>
+  <si>
+    <t>GrzcLgIHx9h</t>
+  </si>
+  <si>
+    <t>NHWA Module 4</t>
+  </si>
+  <si>
+    <t>dataSets</t>
+  </si>
+  <si>
+    <t>HtZb6Cg7TXo</t>
+  </si>
+  <si>
+    <t>HWF Module 4</t>
+  </si>
+  <si>
+    <t>dataEntryForms</t>
+  </si>
+  <si>
+    <t>rbmrIWEJriN</t>
+  </si>
+  <si>
+    <t>NHWA_Yes Partial No</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>BGi4lPgaJ07</t>
+  </si>
+  <si>
+    <t>NHWA_Key Occupations with Medical Specialist</t>
+  </si>
+  <si>
+    <t>WvBALLQ0kGe</t>
+  </si>
+  <si>
+    <t>DMyxTSpvKOp</t>
+  </si>
+  <si>
+    <t>NHWA_Ownership</t>
+  </si>
+  <si>
+    <t>Vfcyfxgs9DR</t>
+  </si>
+  <si>
+    <t>NHWA_health education type</t>
+  </si>
+  <si>
+    <t>wEZFwERd9D9</t>
+  </si>
+  <si>
+    <t>NHWA_Source Type Mod 4</t>
+  </si>
+  <si>
+    <t>t6z9en1VZ6i</t>
+  </si>
+  <si>
+    <t>NHWA_Medical Specialist</t>
+  </si>
+  <si>
+    <t>GiBQXRxrLJ9</t>
+  </si>
+  <si>
+    <t>NHWA_Key Occupations</t>
+  </si>
+  <si>
+    <t>phnE76RjYz8</t>
+  </si>
+  <si>
+    <t>categoryCombos</t>
+  </si>
+  <si>
+    <t>JzvGfLYkX17</t>
+  </si>
+  <si>
+    <t>CVlyw498LdE</t>
+  </si>
+  <si>
+    <t>mfxqh0f3rkf</t>
+  </si>
+  <si>
+    <t>NHWA_Education type</t>
+  </si>
+  <si>
+    <t>CIP5YUBl5Hj</t>
+  </si>
+  <si>
+    <t>h93FZvJnB12</t>
+  </si>
+  <si>
+    <t>sNmNyudrFxw</t>
+  </si>
+  <si>
+    <t>egJEs4lCHsI</t>
+  </si>
+  <si>
+    <t>A25M5muzm04</t>
+  </si>
+  <si>
+    <t>INTEGER_ZERO_OR_POSITIVE</t>
+  </si>
+  <si>
+    <t>Others expenditure on CPD</t>
+  </si>
+  <si>
+    <t>dataElements</t>
+  </si>
+  <si>
+    <t>hUqp2FZFNGA</t>
+  </si>
+  <si>
+    <t>TRUE_ONLY</t>
+  </si>
+  <si>
+    <t>Midwifery Professional education finances source t</t>
+  </si>
+  <si>
+    <t>eHX3CD9w5XG</t>
+  </si>
+  <si>
+    <t>Medical Doctor education finances source type</t>
+  </si>
+  <si>
+    <t>FhipFemkCD6</t>
+  </si>
+  <si>
+    <t>Public expenditure on CPD</t>
+  </si>
+  <si>
+    <t>k31vRXPe1UA</t>
+  </si>
+  <si>
+    <t>OoP expenditure on CPD</t>
+  </si>
+  <si>
+    <t>go9xficYy4f</t>
+  </si>
+  <si>
+    <t>FILE_RESOURCE</t>
+  </si>
+  <si>
+    <t>HWF Module 4 File upload</t>
+  </si>
+  <si>
+    <t>mQh8RpY2ccw</t>
+  </si>
+  <si>
+    <t>Total expenditure on health education by Education</t>
+  </si>
+  <si>
+    <t>T6CoTrwDx30</t>
+  </si>
+  <si>
+    <t>Other Private Expenditure on HWF education</t>
+  </si>
+  <si>
+    <t>tsRGEPI6G9W</t>
+  </si>
+  <si>
+    <t>Total expenditure on higher education</t>
+  </si>
+  <si>
+    <t>KzzMv68cifG</t>
+  </si>
+  <si>
+    <t>Public cost per grad in medical specialist program</t>
+  </si>
+  <si>
+    <t>VGwyxy87JTn</t>
+  </si>
+  <si>
+    <t>Specialist Medical Practitioner education finances</t>
+  </si>
+  <si>
+    <t>ueq331C93KZ</t>
+  </si>
+  <si>
+    <t>workforce strategy for transformative education</t>
+  </si>
+  <si>
+    <t>Ybz3qUCWYKC</t>
+  </si>
+  <si>
+    <t>Annual Tuition Fee by Student enrolled</t>
+  </si>
+  <si>
+    <t>EI6IOp5v4dR</t>
+  </si>
+  <si>
+    <t>Private Other cost in medical specialist program</t>
+  </si>
+  <si>
+    <t>uEqspl3rRlH</t>
+  </si>
+  <si>
+    <t>Private OoP per grad in medical specialist program</t>
+  </si>
+  <si>
+    <t>qwZoBgLRrQf</t>
+  </si>
+  <si>
+    <t>Public Expenditure on HWF education</t>
+  </si>
+  <si>
+    <t>FQpontg7YBJ</t>
+  </si>
+  <si>
+    <t>Expenditure on HWF pre-service education</t>
+  </si>
+  <si>
+    <t>Z6Wd8wiIAfz</t>
+  </si>
+  <si>
+    <t>OOP Private Expenditure on HWF education</t>
+  </si>
+  <si>
+    <t>FpVMaxDKMvc</t>
+  </si>
+  <si>
+    <t>Pharmacist education finances source type</t>
+  </si>
+  <si>
+    <t>VbeNbk9aZpF</t>
+  </si>
+  <si>
+    <t>Recurrent costs of qualified educators</t>
+  </si>
+  <si>
+    <t>FM20fzfsNov</t>
+  </si>
+  <si>
+    <t>LONG_TEXT</t>
+  </si>
+  <si>
+    <t>Comment workforce strategy transform education</t>
+  </si>
+  <si>
+    <t>fXxS36qL9Vt</t>
+  </si>
+  <si>
+    <t>General Medical Practitioner education finances so</t>
+  </si>
+  <si>
+    <t>LiIAZRiHerP</t>
+  </si>
+  <si>
+    <t>Private ODA per grad in medical specialist program</t>
+  </si>
+  <si>
+    <t>Rx0MR32LJoK</t>
+  </si>
+  <si>
+    <t>ODA Private Expenditure on HWF education</t>
+  </si>
+  <si>
+    <t>hNld16i4Kfj</t>
+  </si>
+  <si>
+    <t>ODA expenditure on CPD</t>
+  </si>
+  <si>
+    <t>BMJGeU5QjPU</t>
+  </si>
+  <si>
+    <t>Nursing Professional education finances source typ</t>
+  </si>
+  <si>
+    <t>qLiR6JcUdmr</t>
+  </si>
+  <si>
+    <t>Dentist education finances source type</t>
+  </si>
+  <si>
+    <t>FFmtJFFISjz</t>
+  </si>
+  <si>
+    <t>Total cost per grad in medical specialist program</t>
+  </si>
+  <si>
+    <t>ie5rMMLaKoX</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Option Set</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +3666,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2687,8 +3735,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2711,6 +3765,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2786,7 +3845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2808,8 +3867,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2934,18 +3994,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2963,15 +4017,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2990,6 +4061,7 @@
     <cellStyle name="Normal 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 9" xfId="19" xr:uid="{3A752E90-8249-485A-B5DF-93C6C590D46D}"/>
     <cellStyle name="tgl" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3005,74 +4077,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$V$17" fmlaRange="$V$13:$V$16" noThreeD="1" sel="1" val="0"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="ComboBox1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -3459,7 +4465,7 @@
   <dimension ref="A1:BZ266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,19 +4494,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>859</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>772</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="A1" s="45" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3512,9 +4518,7 @@
       <c r="R1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="9" t="s">
-        <v>762</v>
-      </c>
+      <c r="V1" s="9"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="4" t="s">
@@ -3531,16 +4535,16 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="52" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3552,10 +4556,7 @@
       <c r="R2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="10" t="e">
-        <f>VLOOKUP(V1,Y2:AB250,2,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="V2" s="10"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="4" t="s">
@@ -3633,14 +4634,15 @@
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="59"/>
       <c r="E4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="25" t="str">
-        <f>IFERROR(VLOOKUP(V1,Y2:AB250,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(C4,Y2:AB250,4,0),"")</f>
         <v/>
       </c>
       <c r="H4" s="23" t="s">
@@ -3729,8 +4731,8 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
       <c r="Y6" s="4" t="s">
         <v>106</v>
       </c>
@@ -3763,14 +4765,14 @@
       <c r="C7" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="53" t="s">
         <v>751</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="53" t="s">
         <v>747</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="N7" s="20"/>
@@ -3808,7 +4810,7 @@
     <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="46"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="18" t="s">
         <v>752</v>
       </c>
@@ -3857,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
@@ -3902,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -4032,11 +5034,11 @@
         <v>750</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G13" s="47"/>
       <c r="N13" s="14"/>
@@ -4112,10 +5114,10 @@
       <c r="C15" s="35" t="s">
         <v>756</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4232,7 +5234,7 @@
         <v>155</v>
       </c>
       <c r="Z18" s="44" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AA18" s="44" t="s">
         <v>668</v>
@@ -4541,13 +5543,13 @@
     </row>
     <row r="30" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y30" s="44" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Z30" s="44" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AA30" s="44" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AB30" s="44" t="s">
         <v>521</v>
@@ -4593,13 +5595,13 @@
     </row>
     <row r="32" spans="6:31" x14ac:dyDescent="0.25">
       <c r="Y32" s="44" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="Z32" s="44" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AA32" s="44" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AB32" s="44" t="s">
         <v>521</v>
@@ -4983,7 +5985,7 @@
     </row>
     <row r="47" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y47" s="44" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="Z47" s="44" t="s">
         <v>540</v>
@@ -5009,7 +6011,7 @@
     </row>
     <row r="48" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y48" s="44" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="Z48" s="44" t="s">
         <v>542</v>
@@ -5035,13 +6037,13 @@
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y49" s="44" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="Z49" s="44" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AA49" s="44" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AB49" s="44" t="s">
         <v>521</v>
@@ -5087,13 +6089,13 @@
     </row>
     <row r="51" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y51" s="44" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Z51" s="44" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AA51" s="44" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="AB51" s="44" t="s">
         <v>521</v>
@@ -5113,13 +6115,13 @@
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y52" s="44" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Z52" s="44" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AA52" s="44" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AB52" s="44" t="s">
         <v>521</v>
@@ -5392,7 +6394,7 @@
     </row>
     <row r="60" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y60" s="44" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="Z60" s="44" t="s">
         <v>547</v>
@@ -5444,7 +6446,7 @@
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y62" s="44" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="Z62" s="44" t="s">
         <v>434</v>
@@ -5496,7 +6498,7 @@
     </row>
     <row r="64" spans="1:78" x14ac:dyDescent="0.25">
       <c r="Y64" s="44" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="Z64" s="44" t="s">
         <v>222</v>
@@ -5834,7 +6836,7 @@
     </row>
     <row r="77" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y77" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="Z77" s="4" t="s">
         <v>281</v>
@@ -6068,13 +7070,13 @@
     </row>
     <row r="86" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y86" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AA86" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AB86" s="4" t="s">
         <v>521</v>
@@ -6484,13 +7486,13 @@
     </row>
     <row r="102" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y102" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="Z102" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AA102" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AB102" s="4" t="s">
         <v>521</v>
@@ -6614,13 +7616,13 @@
     </row>
     <row r="107" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y107" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="Z107" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AA107" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AB107" s="4" t="s">
         <v>521</v>
@@ -6640,13 +7642,13 @@
     </row>
     <row r="108" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y108" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="Z108" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AA108" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AB108" s="4" t="s">
         <v>521</v>
@@ -6874,13 +7876,13 @@
     </row>
     <row r="117" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y117" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Z117" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AA117" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AB117" s="4" t="s">
         <v>521</v>
@@ -7004,13 +8006,13 @@
     </row>
     <row r="122" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y122" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="Z122" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AA122" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="AB122" s="4" t="s">
         <v>521</v>
@@ -8252,7 +9254,7 @@
     </row>
     <row r="170" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y170" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="Z170" s="4" t="s">
         <v>506</v>
@@ -8538,7 +9540,7 @@
     </row>
     <row r="181" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y181" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Z181" s="4" t="s">
         <v>609</v>
@@ -8850,7 +9852,7 @@
     </row>
     <row r="193" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y193" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Z193" s="4" t="s">
         <v>617</v>
@@ -8876,13 +9878,13 @@
     </row>
     <row r="194" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y194" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="Z194" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AA194" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AB194" s="4" t="s">
         <v>521</v>
@@ -8980,13 +9982,13 @@
     </row>
     <row r="198" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y198" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Z198" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AA198" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AB198" s="4" t="s">
         <v>521</v>
@@ -9474,13 +10476,13 @@
     </row>
     <row r="217" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y217" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="Z217" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AA217" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="AB217" s="4" t="s">
         <v>521</v>
@@ -9656,13 +10658,13 @@
     </row>
     <row r="224" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y224" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="Z224" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AA224" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AB224" s="4" t="s">
         <v>521</v>
@@ -10098,7 +11100,7 @@
     </row>
     <row r="241" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y241" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="Z241" s="4" t="s">
         <v>658</v>
@@ -10228,7 +11230,7 @@
     </row>
     <row r="246" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y246" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="Z246" s="4" t="s">
         <v>514</v>
@@ -10358,13 +11360,13 @@
     </row>
     <row r="251" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y251" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="Z251" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AA251" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="AB251" s="4" t="s">
         <v>521</v>
@@ -10540,7 +11542,7 @@
     </row>
     <row r="258" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y258" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="Z258" s="4" t="s">
         <v>660</v>
@@ -10592,7 +11594,7 @@
     </row>
     <row r="260" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y260" s="4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="Z260" s="4" t="s">
         <v>393</v>
@@ -10618,13 +11620,13 @@
     </row>
     <row r="261" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y261" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Z261" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="AA261" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AB261" s="4" t="s">
         <v>521</v>
@@ -10748,13 +11750,13 @@
     </row>
     <row r="266" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y266" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="Z266" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AA266" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AB266" s="4" t="s">
         <v>521</v>
@@ -10773,8 +11775,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9+kH2CRDxuOYnSRhPBAjQ138YQG8R5yfrF4ByC6OpMaAw14iGEo5VwwfiEmM0l9YiDNG/cnAtFnysBn7mTCU9w==" saltValue="25HMzSWCma3As/yL++RM4A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gqwh5vUcO6YF2oSr2dOh+Ia1CxDmkxlBYiShhhrYE0HTJd9DlIBSW+TrYSG/+YbSLPzrU68AZwTpwBSCPq3Yeg==" saltValue="vw1UzbEgPZ6yoPPdxidn+Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -10782,12 +11790,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G10" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -10802,55 +11804,18 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId4" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="V1" listFillRange="dropdownlist" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId4" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId6" name="Drop Down 4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-    </mc:AlternateContent>
-  </controls>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C3D502D-3727-45D8-A274-542D09B51DFB}">
+          <x14:formula1>
+            <xm:f>Validation!$A$3:$A$1024</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10878,39 +11843,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
-        <v>772</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="11" t="e">
+      <c r="B2" s="52" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="11">
         <f>Finance!V2</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10932,9 +11897,9 @@
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="str">
-        <f>Finance!V1</f>
-        <v/>
+      <c r="C4" s="25">
+        <f>Finance!C4</f>
+        <v>0</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>0</v>
@@ -10962,58 +11927,58 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>757</v>
       </c>
-      <c r="D7" s="53" t="s">
-        <v>780</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>770</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
+      <c r="D7" s="54" t="s">
         <v>779</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>778</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54" t="s">
+        <v>767</v>
+      </c>
+      <c r="F8" s="54" t="s">
         <v>768</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>769</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="14"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="38" t="s">
         <v>752</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>758</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="14"/>
       <c r="K9" s="41"/>
       <c r="N9" s="4" t="str">
@@ -11038,11 +12003,11 @@
       <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
-        <v>782</v>
+      <c r="B11" s="39">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -11054,11 +12019,11 @@
       <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
-        <v>783</v>
+      <c r="B12" s="39">
+        <v>1.2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -11071,10 +12036,10 @@
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -11087,10 +12052,10 @@
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -11103,10 +12068,10 @@
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -11119,10 +12084,10 @@
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -11135,10 +12100,10 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -11151,10 +12116,10 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -11230,7 +12195,7 @@
       <c r="K22" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Xy/S2mRAh/9qVbmm3IIs6PrG2XlYJvNlMvM8akyWOlVCBcW4pn0Vlu1WNWba3WYyWjW+iicUEi7kQiDhpFACYQ==" saltValue="K1c85e85nh12c3vvDxNyhg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DFgiAa0n3y024ZKoDQm4atVTR+7p8D4uSbbsCHMcvRSj2LhOZb+T7t/m0qaewediNfGqq5tIp1uCJIMDAn1ZDA==" saltValue="y5x+s5VlfhEBUTNu2R59mg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="9">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
@@ -11276,39 +12241,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
-        <v>772</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="4" t="e">
+      <c r="B2" s="52" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="4">
         <f>Finance!V2</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
@@ -11329,9 +12294,9 @@
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="str">
-        <f>Finance!V1</f>
-        <v/>
+      <c r="C4" s="25">
+        <f>Finance!C4</f>
+        <v>0</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>0</v>
@@ -11356,47 +12321,47 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>757</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="54" t="s">
         <v>759</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55" t="s">
         <v>751</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="55" t="s">
         <v>747</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="N9" s="4" t="str">
         <f>IF(N8=2,"true",IF(N8=3,"false",""))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="29" t="s">
         <v>752</v>
       </c>
@@ -11420,11 +12385,11 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>782</v>
+      <c r="B12" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -11432,11 +12397,11 @@
       <c r="G12" s="37"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>783</v>
+      <c r="B13" s="6">
+        <v>1.2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -11492,7 +12457,7 @@
       <c r="G17" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b0TtHXzwvHqTHQvIcerO1iQUulndk3TTJmQ/O2QhD+Ysx3BBWTveGfKCk3AR9zgCJHhJRkW27EXvmjSmzROx6w==" saltValue="vPU6X5P7XpL1wCiaRC7jqw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SXvf16aLFWcyy+LG6ed2kZCk9tMcEulqqLDqB5DfTSosm7xv3JbgsdKa7f1S9yWFhlTewIY17byHdyaqoGQRKQ==" saltValue="ImogY+FhcKwTwl5rFyYlKQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="D9:D10"/>
@@ -11510,4 +12475,5919 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040CB521-0DED-4383-8402-C83F833AB4BA}">
+  <dimension ref="A1:E267"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="str">
+        <f>_HtZb6Cg7TXo</f>
+        <v>NHWA Module 4</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>861</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>860</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>858</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="str">
+        <f>_oofyLUJJ6Vy</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="B3" s="56">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="56" t="str">
+        <f>_Xr12mI7VPn3</f>
+        <v>default</v>
+      </c>
+      <c r="D3" s="56" t="str">
+        <f>_true</f>
+        <v>Yes</v>
+      </c>
+      <c r="E3" s="56" t="str">
+        <f>_true</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="str">
+        <f>_VGOzFKfSazN</f>
+        <v>Albania</v>
+      </c>
+      <c r="D4" s="56" t="str">
+        <f>_false</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="str">
+        <f>_mNa42CHbkO7</f>
+        <v>Algeria</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="str">
+        <f>_VYVKdqiXo4b</f>
+        <v>American Samoa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="str">
+        <f>_Rmy6DbwekE1</f>
+        <v>Andorra</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="str">
+        <f>_jFOZHDZpjPL</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="str">
+        <f>_f4ZFD2aswys</f>
+        <v>Anguilla</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="str">
+        <f>_pfhvgmllA9M</f>
+        <v>Antigua and Barbuda</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="str">
+        <f>_AZdPnw0b1lm</f>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="str">
+        <f>_cWrL45je7mw</f>
+        <v>Armenia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="str">
+        <f>_lKZR6UK0afN</f>
+        <v>Aruba</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="str">
+        <f>_LbWpsX1FJcC</f>
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="str">
+        <f>_e9IoKRAkYLO</f>
+        <v>Austria</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="str">
+        <f>_ST86paYjRHP</f>
+        <v>Azerbaijan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="str">
+        <f>_VbbSe7wgS9s</f>
+        <v>Bahamas</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="str">
+        <f>_T7tKHiW1Db1</f>
+        <v>Bahrain</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="str">
+        <f>_dNLjKwsVjod</f>
+        <v>Bangladesh</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="str">
+        <f>_iNT35p3jsEM</f>
+        <v>Barbados</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="str">
+        <f>_Tr4i6jeDDqj</f>
+        <v>Belarus</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="str">
+        <f>_KwgjnBBpe5b</f>
+        <v>Belgium</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="str">
+        <f>_Nrnay4JA8Ga</f>
+        <v>Belize</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="str">
+        <f>_DzAOqCf0ots</f>
+        <v>Benin</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="str">
+        <f>_ZzoDfdWIt6z</f>
+        <v>Bermuda</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="str">
+        <f>_JQ5qF3mRCMe</f>
+        <v>Bhutan</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="str">
+        <f>_cpmmPDsQ3uG</f>
+        <v>Bolivia (Plurinational State of)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="str">
+        <f>_wyKC2eWRH3y</f>
+        <v>Bonaire, Saint Eustatius and Saba</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="str">
+        <f>_n8iofJiiX4T</f>
+        <v>Bosnia and Herzegovina</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="str">
+        <f>_c82mDnhUQly</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="str">
+        <f>_sg5v6c9tCZ3</f>
+        <v>Bouvet Island</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="str">
+        <f>_dpcvWc01CeN</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="str">
+        <f>_PFAtPR87fHs</f>
+        <v>British Indian Ocean Territory</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56" t="str">
+        <f>_u7H4MyT2Y0A</f>
+        <v>British Virgin Islands</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="str">
+        <f>_MJEntShoQVK</f>
+        <v>Brunei Darussalam</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="str">
+        <f>_AjeCGGb8H76</f>
+        <v>Bulgaria</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="str">
+        <f>_hmZE3mVAZFf</f>
+        <v>Burkina Faso</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="str">
+        <f>_Xz7rnovuiOx</f>
+        <v>Burundi</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="str">
+        <f>_bGWaeVBrOcc</f>
+        <v>Cabo Verde</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="str">
+        <f>_dscgTvwyCw8</f>
+        <v>Cambodia</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="str">
+        <f>_VPesUmegQpP</f>
+        <v>Cameroon</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="str">
+        <f>_AJBfDthkySs</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56" t="str">
+        <f>_u3GOCB1Hu01</f>
+        <v>Cayman Islands</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56" t="str">
+        <f>_ZcrjvJaYQb7</f>
+        <v>Central African Republic</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="str">
+        <f>_tV0rWhHr9cj</f>
+        <v>Chad</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="str">
+        <f>_zFInPJBZVbN</f>
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="str">
+        <f>_q23bFLr2E5D</f>
+        <v>China</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56" t="str">
+        <f>_myv7amOYTHn</f>
+        <v>China, Hong Kong SAR</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="str">
+        <f>_y582ESg0Vjo</f>
+        <v>China, Macao SAR</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="str">
+        <f>_lGN2n7pZ6Ua</f>
+        <v>China, Province of Taiwan</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56" t="str">
+        <f>_a0Tb0vzKk1m</f>
+        <v>China: Province of Taiwan only</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56" t="str">
+        <f>_XjHXb0aFH5w</f>
+        <v>Christmas Island</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56" t="str">
+        <f>_AFIorEPU00q</f>
+        <v>Cocos (Keeling) Islands</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="str">
+        <f>_jXQq22U4Y2e</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56" t="str">
+        <f>_RTdjvXHJdnH</f>
+        <v>Comoros</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="str">
+        <f>_shRXArPWh8H</f>
+        <v>Congo</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="str">
+        <f>_TldYkeCwb5r</f>
+        <v>Cook Islands</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="str">
+        <f>_pbH6bmcioGw</f>
+        <v>Costa Rica</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56" t="str">
+        <f>_lbMrRSBsXh3</f>
+        <v>Croatia</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56" t="str">
+        <f>_Zdl3ad7PayF</f>
+        <v>Cuba</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="str">
+        <f>_QSpLidCdqMU</f>
+        <v>Curaçao</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="56" t="str">
+        <f>_Mb9IYOFZYCv</f>
+        <v>Cyprus</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56" t="str">
+        <f>_XKKI1hhyFxk</f>
+        <v>Czechia</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="56" t="str">
+        <f>_NhuW760cOQG</f>
+        <v>Czechoslovakia, Former</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56" t="str">
+        <f>_WXGcnQWJ0Qd</f>
+        <v>Côte d'Ivoire</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56" t="str">
+        <f>_OFXJXWnOG0R</f>
+        <v>Democratic People's Republic of Korea</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="56" t="str">
+        <f>_EDHO4qOyY88</f>
+        <v>Democratic Republic of the Congo</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="56" t="str">
+        <f>_CCl7hAqlrmE</f>
+        <v>Denmark</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="56" t="str">
+        <f>_Yg9QkNQk9p7</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="56" t="str">
+        <f>_s1mzBU7YOaZ</f>
+        <v>Dominica</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56" t="str">
+        <f>_PpjdOoVUc7k</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="56" t="str">
+        <f>_LAPR4Iu2NVS</f>
+        <v>Ecuador</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="56" t="str">
+        <f>_JIr15Xt3EQn</f>
+        <v>Egypt</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="56" t="str">
+        <f>_Mk7P920hkBa</f>
+        <v>El Salvador</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="56" t="str">
+        <f>_Fi5lLVwe1Th</f>
+        <v>Equatorial Guinea</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="56" t="str">
+        <f>_vnbnnSZXGTv</f>
+        <v>Eritrea</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="56" t="str">
+        <f>_XeWqwCw9G5s</f>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="56" t="str">
+        <f>_G3thRWUQAX9</f>
+        <v>Eswatini</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="56" t="str">
+        <f>_zEYrsiNUGIo</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="56" t="str">
+        <f>_PRrdILmQQb3</f>
+        <v>Falkland Islands (Malvinas)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="56" t="str">
+        <f>_ngUSWwX0Oby</f>
+        <v>Faroe Islands</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="56" t="str">
+        <f>_sSIYRwB1r74</f>
+        <v>Fiji</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="56" t="str">
+        <f>_bnQX2QIuIY9</f>
+        <v>Finland</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="56" t="str">
+        <f>_VnTycSnraEY</f>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="56" t="str">
+        <f>_UJVEh0g7qOo</f>
+        <v>French Guiana</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="56" t="str">
+        <f>_QLERXr2o7IE</f>
+        <v>French Polynesia</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="56" t="str">
+        <f>_BLpPqpMtgQY</f>
+        <v>French Southern Territories</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="56" t="str">
+        <f>_EGLpIMSAWhx</f>
+        <v>Gabon</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="56" t="str">
+        <f>_z51rgcc5R8V</f>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="56" t="str">
+        <f>_fg8TSIHSGHX</f>
+        <v>Georgia</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="56" t="str">
+        <f>_Ri2tb7LBVtP</f>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="56" t="str">
+        <f>_hgGOTFYZxMO</f>
+        <v>Germany, Former Democratic Republic</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="56" t="str">
+        <f>_E9G2aQpCs1A</f>
+        <v>Germany, Former Federal Republic</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="56" t="str">
+        <f>_Fq9qs6Kn6wN</f>
+        <v>Germany, West Berlin</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="56" t="str">
+        <f>_WC5rU5fLMzY</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="56" t="str">
+        <f>_BVzmce6DVeS</f>
+        <v>Gibraltar</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="56" t="str">
+        <f>_eyvitcZL4ex</f>
+        <v>Greece</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="56" t="str">
+        <f>_IZy3ESdFnp5</f>
+        <v>Greenland</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="56" t="str">
+        <f>_gg9DH7dvdeD</f>
+        <v>Grenada</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="56" t="str">
+        <f>_cRWrIpjzvVl</f>
+        <v>Guadeloupe</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="56" t="str">
+        <f>_q9u7nkNkuGy</f>
+        <v>Guam</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="56" t="str">
+        <f>_bhkJDAiqVKX</f>
+        <v>Guatemala</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="56" t="str">
+        <f>_NUkOvK4bnj2</f>
+        <v>Guernsey</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="56" t="str">
+        <f>_quQpOfBIDFC</f>
+        <v>Guinea</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="56" t="str">
+        <f>_G9o5ad4oJJX</f>
+        <v>Guinea-Bissau</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="56" t="str">
+        <f>_AUStREIxT4s</f>
+        <v>Guyana</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="56" t="str">
+        <f>_ipe4pT2TW7G</f>
+        <v>Haiti</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="56" t="str">
+        <f>_apVWLKfARpb</f>
+        <v>Heard Island and McDonald Islands</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="56" t="str">
+        <f>_jZOt27rWre8</f>
+        <v>Holy See</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="str">
+        <f>_mDSuyD9lOM5</f>
+        <v>Honduras</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="56" t="str">
+        <f>_g49fuSiB623</f>
+        <v>Hungary</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="56" t="str">
+        <f>_Bc3mYAhlY1a</f>
+        <v>Iceland</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="56" t="str">
+        <f>_WApLDd37Yj2</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="56" t="str">
+        <f>_jVqoXv7rFns</f>
+        <v>Indonesia</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="56" t="str">
+        <f>_SsAjVE1S87E</f>
+        <v>Iran (Islamic Republic of)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="56" t="str">
+        <f>_fHXW26zg2U6</f>
+        <v>Iraq</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="56" t="str">
+        <f>_uvTw0Kus5KZ</f>
+        <v>Ireland</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="56" t="str">
+        <f>_ehNfKt5LpG9</f>
+        <v>Isle of Man</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="56" t="str">
+        <f>_XebDUbuPqVx</f>
+        <v>Israel</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="56" t="str">
+        <f>_ElwEWppmGgv</f>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="56" t="str">
+        <f>_x6DVvicRjYC</f>
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="56" t="str">
+        <f>_JI5lagoUJR4</f>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="56" t="str">
+        <f>_XJscL6IuHpd</f>
+        <v>Jersey</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="56" t="str">
+        <f>_GWQBgBHdbbp</f>
+        <v>Jordan</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="56" t="str">
+        <f>_ibGsqmiVkoU</f>
+        <v>Kazakhstan</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="56" t="str">
+        <f>_HfVjCurKxh2</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="56" t="str">
+        <f>_Nlv8oKkoAwp</f>
+        <v>Kiribati</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="56" t="str">
+        <f>_tnTRnfd2aVs</f>
+        <v>Kuwait</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="56" t="str">
+        <f>_tDFavWinSwr</f>
+        <v>Kyrgyzstan</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="56" t="str">
+        <f>_bvyjEfI0d2V</f>
+        <v>Lao People's Democratic Republic</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="56" t="str">
+        <f>_gxi9jcBYyrL</f>
+        <v>Latvia</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="56" t="str">
+        <f>_ACalScnrl2I</f>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="56" t="str">
+        <f>_D4JnxOsqwE4</f>
+        <v>Lesotho</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="56" t="str">
+        <f>_JEHwU064LAj</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="56" t="str">
+        <f>_zaluKz5Llai</f>
+        <v>Libya</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="56" t="str">
+        <f>_gMz0MxjZcEt</f>
+        <v>Liechtenstein</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="56" t="str">
+        <f>_T1irZBQ9gNW</f>
+        <v>Lithuania</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="56" t="str">
+        <f>_mmJUi0PpvGi</f>
+        <v>Luxembourg</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="56" t="str">
+        <f>_bcy4159FETR</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="56" t="str">
+        <f>_G037PAPU5dO</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="56" t="str">
+        <f>_BmTVMvJHVBO</f>
+        <v>Malaysia</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="56" t="str">
+        <f>_FOJUXD6f6lB</f>
+        <v>Maldives</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="56" t="str">
+        <f>_EubjsxqlA4d</f>
+        <v>Mali</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="56" t="str">
+        <f>_TIhakAVsQwM</f>
+        <v>Malta</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="56" t="str">
+        <f>_Ajnw1b8m6eL</f>
+        <v>Marshall Islands</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="56" t="str">
+        <f>_v2B5AtYQV8H</f>
+        <v>Martinique</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="56" t="str">
+        <f>_XYpsN5j30R9</f>
+        <v>Mauritania</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="56" t="str">
+        <f>_EB4aSZN0eQr</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="56" t="str">
+        <f>_Bon3xyAAWKf</f>
+        <v>Mayotte</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="56" t="str">
+        <f>_KAUSOoBq5Ft</f>
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="56" t="str">
+        <f>_lnvESj20mWZ</f>
+        <v>Micronesia (Federated States of)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="56" t="str">
+        <f>_cZ8823L0fLJ</f>
+        <v>Monaco</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="56" t="str">
+        <f>_IZSm5iPKkDg</f>
+        <v>Mongolia</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="56" t="str">
+        <f>_JX7HJfPfbog</f>
+        <v>Montenegro</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="56" t="str">
+        <f>_B4iWc3gcDcn</f>
+        <v>Montserrat</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="56" t="str">
+        <f>_WuQvgvXKamv</f>
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="56" t="str">
+        <f>_Gan3VYicAWe</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="56" t="str">
+        <f>_YOL13ptz4ef</f>
+        <v>Myanmar</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="56" t="str">
+        <f>_rtLnlu4GUI2</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="56" t="str">
+        <f>_Pz0LCggcqES</f>
+        <v>Nauru</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="56" t="str">
+        <f>_pZZriU4sY0l</f>
+        <v>Nepal</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="56" t="str">
+        <f>_rEQqufy2KNi</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="56" t="str">
+        <f>_COs48yLdDvg</f>
+        <v>Netherlands Antilles</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="56" t="str">
+        <f>_jMGr96nGwHN</f>
+        <v>New Caledonia</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="56" t="str">
+        <f>_hG1CNbw8wSF</f>
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="56" t="str">
+        <f>_wnuoeS9sVZR</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="56" t="str">
+        <f>_O0hWoXlHhIS</f>
+        <v>Niger</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="56" t="str">
+        <f>_I3NxIqG7bD4</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="56" t="str">
+        <f>_KqaTbKanCG3</f>
+        <v>Niue</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="56" t="str">
+        <f>_O7BGyJhV2Tc</f>
+        <v>Norfolk Island</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="56" t="str">
+        <f>_cfBaKMnsXd1</f>
+        <v>North Macedonia</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="56" t="str">
+        <f>_vPoFz9J1v6Y</f>
+        <v>Northern Mariana Islands</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="56" t="str">
+        <f>_oy494aJtjTB</f>
+        <v>Norway</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="56" t="str">
+        <f>_G8FCnT37gyb</f>
+        <v>Oman</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="56" t="str">
+        <f>_yzAMOdV0Pmr</f>
+        <v>Pakistan</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="56" t="str">
+        <f>_iFaKKDtb7nf</f>
+        <v>Palau</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="56" t="str">
+        <f>_wUBWZEHJm6Q</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="56" t="str">
+        <f>_Zav7juzGmEo</f>
+        <v>Papua New Guinea</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="56" t="str">
+        <f>_Wpzccx0vjIP</f>
+        <v>Paraguay</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="56" t="str">
+        <f>_vkXlj7ZPkGi</f>
+        <v>Peru</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="56" t="str">
+        <f>_QkOClVdLto1</f>
+        <v>Philippines</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="56" t="str">
+        <f>_fHaKXfcKthe</f>
+        <v>Pitcairn</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="56" t="str">
+        <f>_wMTP4GblKr8</f>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="56" t="str">
+        <f>_PevCwH17M73</f>
+        <v>Portugal</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="56" t="str">
+        <f>_w3IJVQhc8Rm</f>
+        <v>Puerto Rico</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="56" t="str">
+        <f>_jCtFxm8aADJ</f>
+        <v>Qatar</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="56" t="str">
+        <f>_IbGbsybdeou</f>
+        <v>Republic of Korea</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="56" t="str">
+        <f>_yBqy4nxuOCA</f>
+        <v>Republic of Moldova</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="56" t="str">
+        <f>_ZRxKEGQmkWI</f>
+        <v>Rodrigues</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="56" t="str">
+        <f>_N9i1v07Ro0E</f>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="56" t="str">
+        <f>_i3v8r9XNls2</f>
+        <v>Russian Federation</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="56" t="str">
+        <f>_UlQiEogy3wG</f>
+        <v>Rwanda</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="56" t="str">
+        <f>_LTLHCOHyyWS</f>
+        <v>Ryu Kyu Islands</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="56" t="str">
+        <f>_VwqhqUCaMgk</f>
+        <v>Réunion</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="56" t="str">
+        <f>_GPyOOoIby8R</f>
+        <v>Saint Barthélemy</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="56" t="str">
+        <f>_aZ7Bm5L90rn</f>
+        <v>Saint Helena</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="56" t="str">
+        <f>_BlC8wOVHBlb</f>
+        <v>Saint Kitts and Nevis</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="56" t="str">
+        <f>_RyAd6laKg3U</f>
+        <v>Saint Lucia</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="56" t="str">
+        <f>_tSBEjAHKj9V</f>
+        <v>Saint Martin (French part)</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="56" t="str">
+        <f>_HYEuE8zV74t</f>
+        <v>Saint Pierre and Miquelon</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="56" t="str">
+        <f>_ZgsdoEiTlLq</f>
+        <v>Saint Vincent and the Grenadines</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="56" t="str">
+        <f>_hpXoMVtJpT3</f>
+        <v>Samoa</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="56" t="str">
+        <f>_SAsS1Kwc4iW</f>
+        <v>San Marino</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="56" t="str">
+        <f>_FNduj2N3e8s</f>
+        <v>Sao Tome and Principe</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="56" t="str">
+        <f>_xB6nQN5Wtpg</f>
+        <v>Saudi Arabia</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="56" t="str">
+        <f>_wj7iV08dvFq</f>
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="56" t="str">
+        <f>_oroMC4mMzMq</f>
+        <v>Serbia</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="56" t="str">
+        <f>_HizhPCC5Ps5</f>
+        <v>Serbia and Montenegro, Former</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="56" t="str">
+        <f>_wimH12ukPK5</f>
+        <v>Seychelles</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="56" t="str">
+        <f>_qbqrFLCJewu</f>
+        <v>Sierra Leone</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="56" t="str">
+        <f>_rb6V38jgfFc</f>
+        <v>Singapore</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="56" t="str">
+        <f>_cCgL3J7Lsgn</f>
+        <v>Sint Maarten (Dutch part)</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="56" t="str">
+        <f>_RDiXMdNXg16</f>
+        <v>Slovakia</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="56" t="str">
+        <f>_PY4aKgi30fr</f>
+        <v>Slovenia</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="56" t="str">
+        <f>_FUieyovDec8</f>
+        <v>Solomon Islands</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="56" t="str">
+        <f>_oWNF4d3PK8C</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="56" t="str">
+        <f>_lVPoUAKCdmU</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="56" t="str">
+        <f>_z5ouOuycTPO</f>
+        <v>South Georgia and the South Sandwich Islands</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="56" t="str">
+        <f>_mhWSEv79IJW</f>
+        <v>South Sudan</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="56" t="str">
+        <f>_DVnpk4xiXGJ</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="56" t="str">
+        <f>_er7MPiN3tdH</f>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="56" t="str">
+        <f>_QqAzWHtJ8VC</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="56" t="str">
+        <f>_IjLnDADGraQ</f>
+        <v>Sudan (former)</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="56" t="str">
+        <f>_jkyBvNzcTLl</f>
+        <v>Suriname</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="56" t="str">
+        <f>_TWyMjVaaxmT</f>
+        <v>Svalbard and Jan Mayen</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="56" t="str">
+        <f>_IFAb1JUZ0Fz</f>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="56" t="str">
+        <f>_q2HqXV5OO3z</f>
+        <v>Switzerland</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="56" t="str">
+        <f>_HDN85xUGB65</f>
+        <v>Syrian Arab Republic</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="56" t="str">
+        <f>_xb2ezJcUoSR</f>
+        <v>Tajikistan</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="56" t="str">
+        <f>_vboedbUs1As</f>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="56" t="str">
+        <f>_pGLy2Zj2lVg</f>
+        <v>The former state union Serbia and Montenegro</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="56" t="str">
+        <f>_cJU4qStc9QT</f>
+        <v>Timor-Leste</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="56" t="str">
+        <f>_WtcZBCTspgM</f>
+        <v>Togo</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="56" t="str">
+        <f>_VMqDEughMuP</f>
+        <v>Tokelau</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="56" t="str">
+        <f>_zYQqFxQw5jj</f>
+        <v>Tonga</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="56" t="str">
+        <f>_fYeClLy8K2x</f>
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="56" t="str">
+        <f>_pMukkUmnnkh</f>
+        <v>Tunisia</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="56" t="str">
+        <f>_eVEK7djdWqV</f>
+        <v>Turkey</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="56" t="str">
+        <f>_HwqfuL9pQz5</f>
+        <v>Turkmenistan</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="56" t="str">
+        <f>_vg4b11FL2Gl</f>
+        <v>Turks and Caicos Islands</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="56" t="str">
+        <f>_GrU8zQv510v</f>
+        <v>Tuvalu</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="56" t="str">
+        <f>_M9HrCkIwaKy</f>
+        <v>US Virgin Islands</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="56" t="str">
+        <f>_wFkq5oB0dFS</f>
+        <v>USSR, Former</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="56" t="str">
+        <f>_SnYHrnchKjL</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="56" t="str">
+        <f>_VJrTuNXAg9G</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="56" t="str">
+        <f>_aNIrqpwcKXv</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="56" t="str">
+        <f>_Gnz4lqrVEMf</f>
+        <v>United Kingdom of Great Britain and Northern Irela</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="56" t="str">
+        <f>_TpDwlm2Spev</f>
+        <v>United Kingdom, England and Wales</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="56" t="str">
+        <f>_Q8De2VxoKXS</f>
+        <v>United Kingdom, Northern Ireland</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="56" t="str">
+        <f>_Gvox4WmLiYC</f>
+        <v>United Kingdom, Scotland</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="56" t="str">
+        <f>_S52uSY3lb8V</f>
+        <v>United Republic of Tanzania</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="56" t="str">
+        <f>_KOUhvjWIy6V</f>
+        <v>United States Minor Outlying Islands</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="56" t="str">
+        <f>_AYWCbVecRKQ</f>
+        <v>United States of America</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="56" t="str">
+        <f>_PJS910L8KtX</f>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="56" t="str">
+        <f>_kpFgAwwSjCZ</f>
+        <v>Uzbekistan</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="56" t="str">
+        <f>_xqjIL1cGrl1</f>
+        <v>Vanuatu</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="56" t="str">
+        <f>_fkrzFaeuYDn</f>
+        <v>Venezuela (Bolivarian Republic of)</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="56" t="str">
+        <f>_av3fkpFxEXj</f>
+        <v>Viet Nam</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="56" t="str">
+        <f>_eVp1pvRfPKS</f>
+        <v>Wallis and Futuna</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="56" t="str">
+        <f>_KrU8C1YTdao</f>
+        <v>West Bank</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="56" t="str">
+        <f>_juBxu3AprlM</f>
+        <v>West Bank and Gaza Strip</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="56" t="str">
+        <f>_PvrMV4NjbtR</f>
+        <v>Western Sahara</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="56" t="str">
+        <f>_HX7fBSMCCbL</f>
+        <v>Yemen</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="56" t="str">
+        <f>_fIlPGTXBCUm</f>
+        <v>Yugoslavia, Former</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="56" t="str">
+        <f>_gb7vWtO7Wjp</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="56" t="str">
+        <f>_buSEeeViTo3</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="56" t="str">
+        <f>_Adzexk8xbzD</f>
+        <v>Åland Islands</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sUxCqMAbCa98wI8C/7xcG/+PpE8f5ngW5pZEQxTl8/7ZRRlDZQV7sNXIoWxKNbQQ7nt26aWhrESCkn4luvFAaw==" saltValue="jLVZK3XEooUd7N5JxkSp9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDBD1F-B7E7-4EE2-B3A2-8239CA2AE908}">
+  <dimension ref="A1:F376"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="80" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="56" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="56" t="s">
+        <v>999</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="56" t="s">
+        <v>997</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="s">
+        <v>996</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="s">
+        <v>994</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
+        <v>991</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>990</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="56" t="s">
+        <v>988</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>987</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="s">
+        <v>985</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
+        <v>983</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="56" t="s">
+        <v>981</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="56" t="s">
+        <v>979</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="56" t="s">
+        <v>977</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="s">
+        <v>975</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="56" t="s">
+        <v>973</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="s">
+        <v>971</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
+        <v>969</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
+        <v>967</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="56" t="s">
+        <v>965</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="56" t="s">
+        <v>963</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
+        <v>961</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="56" t="s">
+        <v>959</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="56" t="s">
+        <v>957</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="56" t="s">
+        <v>955</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="56" t="s">
+        <v>953</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="56" t="s">
+        <v>951</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="56" t="s">
+        <v>949</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="56" t="s">
+        <v>945</v>
+      </c>
+      <c r="B69" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="56" t="s">
+        <v>943</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="56" t="s">
+        <v>941</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="56" t="s">
+        <v>939</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="56" t="s">
+        <v>937</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="56" t="s">
+        <v>935</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="56" t="s">
+        <v>933</v>
+      </c>
+      <c r="B75" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C75" s="56" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="56" t="s">
+        <v>931</v>
+      </c>
+      <c r="B76" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C76" s="56" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="56" t="s">
+        <v>929</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C77" s="56" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="56" t="s">
+        <v>927</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C78" s="56" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="56" t="s">
+        <v>926</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="56" t="s">
+        <v>924</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C80" s="56" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="56" t="s">
+        <v>922</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C81" s="56" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="56" t="s">
+        <v>920</v>
+      </c>
+      <c r="B82" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C82" s="56" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="56" t="s">
+        <v>918</v>
+      </c>
+      <c r="B83" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C83" s="56" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="56" t="s">
+        <v>916</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C84" s="56" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="56" t="s">
+        <v>914</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>913</v>
+      </c>
+      <c r="C85" s="56" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="56" t="s">
+        <v>911</v>
+      </c>
+      <c r="B86" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C86" s="56" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="56" t="s">
+        <v>909</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C87" s="56" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="56" t="s">
+        <v>907</v>
+      </c>
+      <c r="B88" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C88" s="56" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="56" t="s">
+        <v>905</v>
+      </c>
+      <c r="B89" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C89" s="56" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="56" t="s">
+        <v>904</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C90" s="56" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="56" t="s">
+        <v>902</v>
+      </c>
+      <c r="B91" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C91" s="56" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="56" t="s">
+        <v>900</v>
+      </c>
+      <c r="B92" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C92" s="56" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="56" t="s">
+        <v>899</v>
+      </c>
+      <c r="B93" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C93" s="56" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="56" t="s">
+        <v>898</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C94" s="56" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="56" t="s">
+        <v>896</v>
+      </c>
+      <c r="B95" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C95" s="56" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="56" t="s">
+        <v>894</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C96" s="56" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="56" t="s">
+        <v>892</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="56" t="s">
+        <v>890</v>
+      </c>
+      <c r="B98" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C98" s="56" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="56" t="s">
+        <v>888</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C99" s="56" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="56" t="s">
+        <v>886</v>
+      </c>
+      <c r="B100" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C100" s="56" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="56" t="s">
+        <v>884</v>
+      </c>
+      <c r="B101" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C101" s="56" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="56" t="s">
+        <v>882</v>
+      </c>
+      <c r="B102" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C102" s="56" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="56" t="s">
+        <v>880</v>
+      </c>
+      <c r="B103" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C103" s="56" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="56" t="s">
+        <v>878</v>
+      </c>
+      <c r="B104" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="56" t="s">
+        <v>877</v>
+      </c>
+      <c r="B105" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C105" s="56" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="56" t="s">
+        <v>875</v>
+      </c>
+      <c r="B106" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C106" s="56" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="56" t="s">
+        <v>873</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="56" t="s">
+        <v>871</v>
+      </c>
+      <c r="B108" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C108" s="56" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="56" t="s">
+        <v>869</v>
+      </c>
+      <c r="B109" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C109" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="B110" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C111" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C112" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="B113" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C113" s="56" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="B114" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C114" s="56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C115" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="B116" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C116" s="56" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C117" s="56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B118" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C118" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="B119" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C119" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="B120" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C120" s="56" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="56" t="s">
+        <v>690</v>
+      </c>
+      <c r="B121" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C121" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="B122" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C122" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="B123" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B124" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C124" s="56" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C125" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="56" t="s">
+        <v>788</v>
+      </c>
+      <c r="B126" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C126" s="56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C127" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="56" t="s">
+        <v>422</v>
+      </c>
+      <c r="B128" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C128" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C129" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C130" s="56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C131" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="B132" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C132" s="56" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="B133" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B134" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C134" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="B135" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C135" s="56" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="B136" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C136" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C137" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="56" t="s">
+        <v>790</v>
+      </c>
+      <c r="B138" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C138" s="56" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B139" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C139" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="56" t="s">
+        <v>793</v>
+      </c>
+      <c r="B140" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C140" s="56" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="B141" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C141" s="56" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="B142" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C142" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="B143" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C143" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C144" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C145" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B146" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C146" s="56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="B147" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C147" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B148" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C148" s="56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C149" s="56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="B150" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C150" s="56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B151" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C151" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B152" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C152" s="56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="B153" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C153" s="56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="56" t="s">
+        <v>698</v>
+      </c>
+      <c r="B154" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C154" s="56" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="B155" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C155" s="56" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="B156" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C156" s="56" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="56" t="s">
+        <v>798</v>
+      </c>
+      <c r="B157" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C157" s="56" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="B158" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C158" s="56" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="56" t="s">
+        <v>801</v>
+      </c>
+      <c r="B159" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C159" s="56" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="B160" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C160" s="56" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="B161" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C161" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B162" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C162" s="56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B163" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C163" s="56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="56" t="s">
+        <v>700</v>
+      </c>
+      <c r="B164" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C164" s="56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="B165" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C165" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="B166" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C166" s="56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B167" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C167" s="56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="B168" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C168" s="56" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="B169" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C169" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="B170" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C170" s="56" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="B171" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C171" s="56" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C172" s="56" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="B173" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C173" s="56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C174" s="56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="B175" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C175" s="56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="B176" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C176" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="B177" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C177" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="B178" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C178" s="56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B179" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C179" s="56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B180" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C180" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="B181" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C181" s="56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C182" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C183" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="B184" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C184" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B185" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C185" s="56" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B186" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C186" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="B187" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C187" s="56" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="B188" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C188" s="56" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="56" t="s">
+        <v>702</v>
+      </c>
+      <c r="B189" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C189" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="B190" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C190" s="56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B191" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C191" s="56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="B192" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C192" s="56" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="B193" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C193" s="56" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="56" t="s">
+        <v>811</v>
+      </c>
+      <c r="B194" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C194" s="56" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="B195" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C195" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C196" s="56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B197" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C197" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="B198" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C198" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="B199" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C199" s="56" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="B200" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C200" s="56" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="56" t="s">
+        <v>571</v>
+      </c>
+      <c r="B201" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C201" s="56" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B202" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C202" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="B203" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C203" s="56" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="B204" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C204" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="B205" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C205" s="56" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="B206" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C206" s="56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="B207" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C207" s="56" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="56" t="s">
+        <v>583</v>
+      </c>
+      <c r="B208" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C208" s="56" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="B209" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C209" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="56" t="s">
+        <v>814</v>
+      </c>
+      <c r="B210" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C210" s="56" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B211" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C211" s="56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B212" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C212" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="B213" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C213" s="56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="B214" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C214" s="56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="56" t="s">
+        <v>817</v>
+      </c>
+      <c r="B215" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C215" s="56" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="56" t="s">
+        <v>820</v>
+      </c>
+      <c r="B216" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C216" s="56" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="B217" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C217" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="B218" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C218" s="56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="B219" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C219" s="56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="B220" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C220" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="56" t="s">
+        <v>676</v>
+      </c>
+      <c r="B221" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C221" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="B222" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C222" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="B223" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C223" s="56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="B224" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C224" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="56" t="s">
+        <v>823</v>
+      </c>
+      <c r="B225" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C225" s="56" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="B226" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C226" s="56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="B227" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C227" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="B228" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C228" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="56" t="s">
+        <v>704</v>
+      </c>
+      <c r="B229" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C229" s="56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="B230" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C230" s="56" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="B231" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C231" s="56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="B232" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C232" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B233" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C233" s="56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="56" t="s">
+        <v>706</v>
+      </c>
+      <c r="B234" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C234" s="56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="B235" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C235" s="56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="B236" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C236" s="56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="B237" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C237" s="56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="B238" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C238" s="56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="B239" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C239" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C240" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C241" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="B242" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C242" s="56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="B243" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C243" s="56" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="56" t="s">
+        <v>466</v>
+      </c>
+      <c r="B244" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C244" s="56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="56" t="s">
+        <v>468</v>
+      </c>
+      <c r="B245" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C245" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C246" s="56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C247" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="B248" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C248" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="56" t="s">
+        <v>678</v>
+      </c>
+      <c r="B249" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C249" s="56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C250" s="56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="B251" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C251" s="56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="B252" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C252" s="56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="56" t="s">
+        <v>589</v>
+      </c>
+      <c r="B253" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C253" s="56" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C254" s="56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C255" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="B256" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C256" s="56" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="B257" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C257" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="56" t="s">
+        <v>714</v>
+      </c>
+      <c r="B258" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C258" s="56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="56" t="s">
+        <v>472</v>
+      </c>
+      <c r="B259" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C259" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="B260" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C260" s="56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="B261" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C261" s="56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="B262" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C262" s="56" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="B263" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C263" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B264" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C264" s="56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="56" t="s">
+        <v>680</v>
+      </c>
+      <c r="B265" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C265" s="56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B266" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C266" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="56" t="s">
+        <v>718</v>
+      </c>
+      <c r="B267" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C267" s="56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="B268" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C268" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="B269" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C269" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="B270" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C270" s="56" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="56" t="s">
+        <v>601</v>
+      </c>
+      <c r="B271" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C271" s="56" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="B272" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C272" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="B273" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C273" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B274" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C274" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C275" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="56" t="s">
+        <v>722</v>
+      </c>
+      <c r="B276" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C276" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="B277" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C277" s="56" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="B278" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C278" s="56" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="56" t="s">
+        <v>607</v>
+      </c>
+      <c r="B279" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C279" s="56" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="B280" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C280" s="56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="B281" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C281" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B282" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C282" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="B283" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C283" s="56" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B284" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C284" s="56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="56" t="s">
+        <v>727</v>
+      </c>
+      <c r="B285" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C285" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="B286" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C286" s="56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="B287" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C287" s="56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="56" t="s">
+        <v>729</v>
+      </c>
+      <c r="B288" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C288" s="56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="56" t="s">
+        <v>609</v>
+      </c>
+      <c r="B289" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C289" s="56" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="56" t="s">
+        <v>480</v>
+      </c>
+      <c r="B290" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C290" s="56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="B291" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C291" s="56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="56" t="s">
+        <v>612</v>
+      </c>
+      <c r="B292" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C292" s="56" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="B293" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C293" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="56" t="s">
+        <v>731</v>
+      </c>
+      <c r="B294" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C294" s="56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="B295" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C295" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="56" t="s">
+        <v>615</v>
+      </c>
+      <c r="B296" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C296" s="56" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="B297" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C297" s="56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="B298" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C298" s="56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="B299" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C299" s="56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="B300" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C300" s="56" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="56" t="s">
+        <v>617</v>
+      </c>
+      <c r="B301" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C301" s="56" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="56" t="s">
+        <v>832</v>
+      </c>
+      <c r="B302" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C302" s="56" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="B303" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C303" s="56" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="B304" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C304" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="B305" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C305" s="56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="56" t="s">
+        <v>835</v>
+      </c>
+      <c r="B306" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C306" s="56" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="B307" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C307" s="56" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B308" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C308" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="56" t="s">
+        <v>733</v>
+      </c>
+      <c r="B309" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C309" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="B310" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C310" s="56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B311" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C311" s="56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="B312" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C312" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B313" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C313" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="56" t="s">
+        <v>492</v>
+      </c>
+      <c r="B314" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C314" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="56" t="s">
+        <v>629</v>
+      </c>
+      <c r="B315" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C315" s="56" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="B316" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C316" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B317" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C317" s="56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="56" t="s">
+        <v>735</v>
+      </c>
+      <c r="B318" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C318" s="56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="56" t="s">
+        <v>632</v>
+      </c>
+      <c r="B319" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C319" s="56" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="B320" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C320" s="56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="B321" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C321" s="56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="56" t="s">
+        <v>737</v>
+      </c>
+      <c r="B322" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C322" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="B323" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C323" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B324" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C324" s="56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="56" t="s">
+        <v>838</v>
+      </c>
+      <c r="B325" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C325" s="56" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B326" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C326" s="56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="B327" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C327" s="56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="B328" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C328" s="56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="B329" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C329" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="B330" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C330" s="56" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B331" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C331" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="56" t="s">
+        <v>841</v>
+      </c>
+      <c r="B332" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C332" s="56" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B333" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C333" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="B334" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C334" s="56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="B335" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C335" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="B336" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C336" s="56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="56" t="s">
+        <v>686</v>
+      </c>
+      <c r="B337" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C337" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="B338" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C338" s="56" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="56" t="s">
+        <v>688</v>
+      </c>
+      <c r="B339" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C339" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="B340" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C340" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="56" t="s">
+        <v>641</v>
+      </c>
+      <c r="B341" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C341" s="56" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="B342" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C342" s="56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="B343" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C343" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="B344" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C344" s="56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="B345" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C345" s="56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="B346" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C346" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="56" t="s">
+        <v>644</v>
+      </c>
+      <c r="B347" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C347" s="56" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="B348" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C348" s="56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="56" t="s">
+        <v>658</v>
+      </c>
+      <c r="B349" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C349" s="56" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="B350" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C350" s="56" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="B351" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C351" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="B352" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C352" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="B353" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C353" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="B354" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C354" s="56" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="56" t="s">
+        <v>647</v>
+      </c>
+      <c r="B355" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C355" s="56" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="B356" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C356" s="56" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="B357" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C357" s="56" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="B358" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C358" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="56" t="s">
+        <v>846</v>
+      </c>
+      <c r="B359" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C359" s="56" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C360" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C361" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="56" t="s">
+        <v>516</v>
+      </c>
+      <c r="B362" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C362" s="56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="B363" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C363" s="56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C364" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="B365" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C365" s="56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="B366" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C366" s="56" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="B367" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C367" s="56" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="B368" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C368" s="56" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="56" t="s">
+        <v>851</v>
+      </c>
+      <c r="B369" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C369" s="56" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="B370" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C370" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="B371" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C371" s="56" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B372" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C372" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B373" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C373" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="56" t="s">
+        <v>854</v>
+      </c>
+      <c r="B374" s="56" t="s">
+        <v>867</v>
+      </c>
+      <c r="C374" s="56" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="56" t="s">
+        <v>866</v>
+      </c>
+      <c r="B375" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="C375" s="56" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="56" t="s">
+        <v>864</v>
+      </c>
+      <c r="B376" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="C376" s="56" t="s">
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="4rrpd/N3KZSKDpZQRHuimNfbnvSPLBz+Ml9VJbK9CaX912WR37kXXM8YPf4FGF//wDoq7005jrVVK+XrE7xEhw==" saltValue="HL9ytlZLZvsdbZyMFkgx5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/templates/NHWA_Module_4.xlsx
+++ b/public/templates/NHWA_Module_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6EBF98-60DB-4C00-AE5D-20EF0DEF6453}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C68E5-63C4-4C12-9DB1-AF621947B5DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="xEnwWQOrz+6IGNuQHbjljzLhfyhUb/ararkpKT5wIo5IPHxcXqVnJ5F/6Dzt0RLGundtIf0DLyFqQ85eu5Livw==" workbookSaltValue="f2EFi905VCy6Bx50v4AEiw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3945,44 +3945,15 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3993,6 +3964,35 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -4439,8 +4439,8 @@
     <col min="20" max="20" width="12.140625" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="16.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="34" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="36" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="32" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="36" width="9.140625" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4448,30 +4448,30 @@
       <c r="A1" s="34" t="s">
         <v>855</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>770</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
       <c r="Y1" s="1" t="s">
         <v>191</v>
       </c>
@@ -4486,30 +4486,30 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>786</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
       <c r="Y2" s="1" t="s">
         <v>85</v>
       </c>
@@ -4536,28 +4536,28 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
       <c r="Y3" s="1" t="s">
         <v>105</v>
       </c>
@@ -4625,23 +4625,23 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
       <c r="Y5" s="1" t="s">
         <v>518</v>
       </c>
@@ -4681,8 +4681,8 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
       <c r="Y6" s="1" t="s">
         <v>106</v>
       </c>
@@ -4709,20 +4709,20 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="48" t="s">
         <v>750</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="51" t="s">
         <v>747</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="N7" s="35"/>
@@ -4758,9 +4758,9 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="36" t="s">
         <v>752</v>
       </c>
@@ -4977,26 +4977,26 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="48" t="s">
         <v>750</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="48" t="s">
         <v>864</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="48" t="s">
         <v>896</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="48" t="s">
         <v>861</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -5026,14 +5026,14 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -5066,19 +5066,19 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="47">
-        <v>1</v>
-      </c>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="40">
+        <v>1</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>756</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="42" t="s">
         <v>1084</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="42" t="s">
         <v>1084</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="42" t="s">
         <v>1084</v>
       </c>
       <c r="G15" s="49"/>
@@ -5430,6 +5430,10 @@
       </c>
     </row>
     <row r="27" spans="6:31" x14ac:dyDescent="0.25">
+      <c r="P27" s="1">
+        <f t="shared" ref="P27:P44" ca="1" si="1">P28+1</f>
+        <v>2020</v>
+      </c>
       <c r="Y27" s="33" t="s">
         <v>531</v>
       </c>
@@ -5456,6 +5460,10 @@
       </c>
     </row>
     <row r="28" spans="6:31" x14ac:dyDescent="0.25">
+      <c r="P28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019</v>
+      </c>
       <c r="Y28" s="33" t="s">
         <v>112</v>
       </c>
@@ -5482,6 +5490,10 @@
       </c>
     </row>
     <row r="29" spans="6:31" x14ac:dyDescent="0.25">
+      <c r="P29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2018</v>
+      </c>
       <c r="Y29" s="33" t="s">
         <v>13</v>
       </c>
@@ -5508,6 +5520,10 @@
       </c>
     </row>
     <row r="30" spans="6:31" x14ac:dyDescent="0.25">
+      <c r="P30" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2017</v>
+      </c>
       <c r="Y30" s="33" t="s">
         <v>788</v>
       </c>
@@ -5534,6 +5550,10 @@
       </c>
     </row>
     <row r="31" spans="6:31" x14ac:dyDescent="0.25">
+      <c r="P31" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2016</v>
+      </c>
       <c r="Y31" s="33" t="s">
         <v>56</v>
       </c>
@@ -5560,6 +5580,10 @@
       </c>
     </row>
     <row r="32" spans="6:31" x14ac:dyDescent="0.25">
+      <c r="P32" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2015</v>
+      </c>
       <c r="Y32" s="33" t="s">
         <v>791</v>
       </c>
@@ -5585,7 +5609,11 @@
         <v>British Indian Ocean Territory</v>
       </c>
     </row>
-    <row r="33" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P33" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2014</v>
+      </c>
       <c r="Y33" s="33" t="s">
         <v>534</v>
       </c>
@@ -5611,7 +5639,11 @@
         <v>British Virgin Islands</v>
       </c>
     </row>
-    <row r="34" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P34" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2013</v>
+      </c>
       <c r="Y34" s="33" t="s">
         <v>167</v>
       </c>
@@ -5637,7 +5669,11 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="35" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P35" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2012</v>
+      </c>
       <c r="Y35" s="33" t="s">
         <v>113</v>
       </c>
@@ -5663,7 +5699,11 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="36" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P36" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2011</v>
+      </c>
       <c r="Y36" s="33" t="s">
         <v>14</v>
       </c>
@@ -5689,7 +5729,11 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="37" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P37" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2010</v>
+      </c>
       <c r="Y37" s="33" t="s">
         <v>15</v>
       </c>
@@ -5715,7 +5759,11 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="38" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P38" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2009</v>
+      </c>
       <c r="Y38" s="33" t="s">
         <v>207</v>
       </c>
@@ -5741,7 +5789,11 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="39" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P39" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2008</v>
+      </c>
       <c r="Y39" s="33" t="s">
         <v>168</v>
       </c>
@@ -5767,7 +5819,11 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="40" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P40" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2007</v>
+      </c>
       <c r="Y40" s="33" t="s">
         <v>16</v>
       </c>
@@ -5793,7 +5849,11 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="41" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P41" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2006</v>
+      </c>
       <c r="Y41" s="33" t="s">
         <v>57</v>
       </c>
@@ -5819,7 +5879,11 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="42" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P42" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2005</v>
+      </c>
       <c r="Y42" s="33" t="s">
         <v>537</v>
       </c>
@@ -5845,7 +5909,11 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="43" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P43" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2004</v>
+      </c>
       <c r="Y43" s="33" t="s">
         <v>17</v>
       </c>
@@ -5871,7 +5939,11 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="44" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P44" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2003</v>
+      </c>
       <c r="Y44" s="33" t="s">
         <v>18</v>
       </c>
@@ -5897,7 +5969,11 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="45" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P45" s="1">
+        <f ca="1">P46+1</f>
+        <v>2002</v>
+      </c>
       <c r="Y45" s="33" t="s">
         <v>58</v>
       </c>
@@ -5923,7 +5999,11 @@
         <v>Chile</v>
       </c>
     </row>
-    <row r="46" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P46" s="1">
+        <f ca="1">YEAR(TODAY())-20</f>
+        <v>2001</v>
+      </c>
       <c r="Y46" s="33" t="s">
         <v>697</v>
       </c>
@@ -5949,7 +6029,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="47" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y47" s="33" t="s">
         <v>794</v>
       </c>
@@ -5975,7 +6055,7 @@
         <v>China, Hong Kong SAR</v>
       </c>
     </row>
-    <row r="48" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y48" s="33" t="s">
         <v>795</v>
       </c>
@@ -6554,7 +6634,7 @@
         <v>413</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" ref="AC67:AC130" si="1">--ISNUMBER(IFERROR(SEARCH($V$1,Y67,1),""))</f>
+        <f t="shared" ref="AC67:AC130" si="2">--ISNUMBER(IFERROR(SEARCH($V$1,Y67,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD67" s="1">
@@ -6580,7 +6660,7 @@
         <v>367</v>
       </c>
       <c r="AC68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD68" s="1">
@@ -6606,7 +6686,7 @@
         <v>295</v>
       </c>
       <c r="AC69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD69" s="1">
@@ -6632,7 +6712,7 @@
         <v>295</v>
       </c>
       <c r="AC70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD70" s="1">
@@ -6658,7 +6738,7 @@
         <v>295</v>
       </c>
       <c r="AC71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD71" s="1">
@@ -6684,7 +6764,7 @@
         <v>367</v>
       </c>
       <c r="AC72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD72" s="1">
@@ -6710,7 +6790,7 @@
         <v>295</v>
       </c>
       <c r="AC73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD73" s="1">
@@ -6736,7 +6816,7 @@
         <v>197</v>
       </c>
       <c r="AC74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD74" s="1">
@@ -6762,7 +6842,7 @@
         <v>197</v>
       </c>
       <c r="AC75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD75" s="1">
@@ -6788,7 +6868,7 @@
         <v>413</v>
       </c>
       <c r="AC76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD76" s="1">
@@ -6814,7 +6894,7 @@
         <v>197</v>
       </c>
       <c r="AC77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD77" s="1">
@@ -6840,7 +6920,7 @@
         <v>197</v>
       </c>
       <c r="AC78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD78" s="1">
@@ -6866,7 +6946,7 @@
         <v>521</v>
       </c>
       <c r="AC79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD79" s="1">
@@ -6892,7 +6972,7 @@
         <v>521</v>
       </c>
       <c r="AC80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD80" s="1">
@@ -6918,7 +6998,7 @@
         <v>692</v>
       </c>
       <c r="AC81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD81" s="1">
@@ -6944,7 +7024,7 @@
         <v>413</v>
       </c>
       <c r="AC82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD82" s="1">
@@ -6970,7 +7050,7 @@
         <v>413</v>
       </c>
       <c r="AC83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD83" s="1">
@@ -6996,7 +7076,7 @@
         <v>521</v>
       </c>
       <c r="AC84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD84" s="1">
@@ -7022,7 +7102,7 @@
         <v>692</v>
       </c>
       <c r="AC85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD85" s="1">
@@ -7048,7 +7128,7 @@
         <v>521</v>
       </c>
       <c r="AC86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD86" s="1">
@@ -7074,7 +7154,7 @@
         <v>197</v>
       </c>
       <c r="AC87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD87" s="1">
@@ -7100,7 +7180,7 @@
         <v>197</v>
       </c>
       <c r="AC88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD88" s="1">
@@ -7126,7 +7206,7 @@
         <v>413</v>
       </c>
       <c r="AC89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD89" s="1">
@@ -7152,7 +7232,7 @@
         <v>413</v>
       </c>
       <c r="AC90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD90" s="1">
@@ -7178,7 +7258,7 @@
         <v>521</v>
       </c>
       <c r="AC91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD91" s="1">
@@ -7204,7 +7284,7 @@
         <v>521</v>
       </c>
       <c r="AC92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD92" s="1">
@@ -7230,7 +7310,7 @@
         <v>521</v>
       </c>
       <c r="AC93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD93" s="1">
@@ -7256,7 +7336,7 @@
         <v>197</v>
       </c>
       <c r="AC94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD94" s="1">
@@ -7282,7 +7362,7 @@
         <v>521</v>
       </c>
       <c r="AC95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD95" s="1">
@@ -7308,7 +7388,7 @@
         <v>413</v>
       </c>
       <c r="AC96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD96" s="1">
@@ -7334,7 +7414,7 @@
         <v>413</v>
       </c>
       <c r="AC97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD97" s="1">
@@ -7360,7 +7440,7 @@
         <v>295</v>
       </c>
       <c r="AC98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD98" s="1">
@@ -7386,7 +7466,7 @@
         <v>521</v>
       </c>
       <c r="AC99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD99" s="1">
@@ -7412,7 +7492,7 @@
         <v>692</v>
       </c>
       <c r="AC100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD100" s="1">
@@ -7438,7 +7518,7 @@
         <v>295</v>
       </c>
       <c r="AC101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD101" s="1">
@@ -7464,7 +7544,7 @@
         <v>521</v>
       </c>
       <c r="AC102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD102" s="1">
@@ -7490,7 +7570,7 @@
         <v>197</v>
       </c>
       <c r="AC103" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD103" s="1">
@@ -7516,7 +7596,7 @@
         <v>197</v>
       </c>
       <c r="AC104" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD104" s="1">
@@ -7542,7 +7622,7 @@
         <v>295</v>
       </c>
       <c r="AC105" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD105" s="1">
@@ -7568,7 +7648,7 @@
         <v>295</v>
       </c>
       <c r="AC106" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD106" s="1">
@@ -7594,7 +7674,7 @@
         <v>521</v>
       </c>
       <c r="AC107" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD107" s="1">
@@ -7620,7 +7700,7 @@
         <v>521</v>
       </c>
       <c r="AC108" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD108" s="1">
@@ -7646,7 +7726,7 @@
         <v>295</v>
       </c>
       <c r="AC109" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD109" s="1">
@@ -7672,7 +7752,7 @@
         <v>413</v>
       </c>
       <c r="AC110" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD110" s="1">
@@ -7698,7 +7778,7 @@
         <v>413</v>
       </c>
       <c r="AC111" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD111" s="1">
@@ -7724,7 +7804,7 @@
         <v>669</v>
       </c>
       <c r="AC112" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD112" s="1">
@@ -7750,7 +7830,7 @@
         <v>669</v>
       </c>
       <c r="AC113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD113" s="1">
@@ -7776,7 +7856,7 @@
         <v>367</v>
       </c>
       <c r="AC114" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD114" s="1">
@@ -7802,7 +7882,7 @@
         <v>367</v>
       </c>
       <c r="AC115" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD115" s="1">
@@ -7828,7 +7908,7 @@
         <v>413</v>
       </c>
       <c r="AC116" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD116" s="1">
@@ -7854,7 +7934,7 @@
         <v>521</v>
       </c>
       <c r="AC117" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD117" s="1">
@@ -7880,7 +7960,7 @@
         <v>413</v>
       </c>
       <c r="AC118" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD118" s="1">
@@ -7906,7 +7986,7 @@
         <v>413</v>
       </c>
       <c r="AC119" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD119" s="1">
@@ -7932,7 +8012,7 @@
         <v>295</v>
       </c>
       <c r="AC120" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD120" s="1">
@@ -7958,7 +8038,7 @@
         <v>692</v>
       </c>
       <c r="AC121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD121" s="1">
@@ -7984,7 +8064,7 @@
         <v>521</v>
       </c>
       <c r="AC122" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD122" s="1">
@@ -8010,7 +8090,7 @@
         <v>367</v>
       </c>
       <c r="AC123" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD123" s="1">
@@ -8036,7 +8116,7 @@
         <v>413</v>
       </c>
       <c r="AC124" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD124" s="1">
@@ -8062,7 +8142,7 @@
         <v>197</v>
       </c>
       <c r="AC125" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD125" s="1">
@@ -8088,7 +8168,7 @@
         <v>692</v>
       </c>
       <c r="AC126" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD126" s="1">
@@ -8114,7 +8194,7 @@
         <v>367</v>
       </c>
       <c r="AC127" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD127" s="1">
@@ -8140,7 +8220,7 @@
         <v>413</v>
       </c>
       <c r="AC128" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD128" s="1">
@@ -8166,7 +8246,7 @@
         <v>692</v>
       </c>
       <c r="AC129" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD129" s="1">
@@ -8192,7 +8272,7 @@
         <v>413</v>
       </c>
       <c r="AC130" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD130" s="1">
@@ -8218,7 +8298,7 @@
         <v>367</v>
       </c>
       <c r="AC131" s="1">
-        <f t="shared" ref="AC131:AC194" si="2">--ISNUMBER(IFERROR(SEARCH($V$1,Y131,1),""))</f>
+        <f t="shared" ref="AC131:AC194" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y131,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD131" s="1">
@@ -8244,7 +8324,7 @@
         <v>197</v>
       </c>
       <c r="AC132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD132" s="1">
@@ -8270,7 +8350,7 @@
         <v>197</v>
       </c>
       <c r="AC133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD133" s="1">
@@ -8296,7 +8376,7 @@
         <v>367</v>
       </c>
       <c r="AC134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD134" s="1">
@@ -8322,7 +8402,7 @@
         <v>521</v>
       </c>
       <c r="AC135" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD135" s="1">
@@ -8348,7 +8428,7 @@
         <v>413</v>
       </c>
       <c r="AC136" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD136" s="1">
@@ -8374,7 +8454,7 @@
         <v>413</v>
       </c>
       <c r="AC137" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD137" s="1">
@@ -8400,7 +8480,7 @@
         <v>197</v>
       </c>
       <c r="AC138" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD138" s="1">
@@ -8426,7 +8506,7 @@
         <v>197</v>
       </c>
       <c r="AC139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD139" s="1">
@@ -8452,7 +8532,7 @@
         <v>692</v>
       </c>
       <c r="AC140" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD140" s="1">
@@ -8478,7 +8558,7 @@
         <v>669</v>
       </c>
       <c r="AC141" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD141" s="1">
@@ -8504,7 +8584,7 @@
         <v>197</v>
       </c>
       <c r="AC142" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD142" s="1">
@@ -8530,7 +8610,7 @@
         <v>413</v>
       </c>
       <c r="AC143" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD143" s="1">
@@ -8556,7 +8636,7 @@
         <v>692</v>
       </c>
       <c r="AC144" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD144" s="1">
@@ -8582,7 +8662,7 @@
         <v>521</v>
       </c>
       <c r="AC145" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD145" s="1">
@@ -8608,7 +8688,7 @@
         <v>197</v>
       </c>
       <c r="AC146" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD146" s="1">
@@ -8634,7 +8714,7 @@
         <v>197</v>
       </c>
       <c r="AC147" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD147" s="1">
@@ -8660,7 +8740,7 @@
         <v>521</v>
       </c>
       <c r="AC148" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD148" s="1">
@@ -8686,7 +8766,7 @@
         <v>295</v>
       </c>
       <c r="AC149" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD149" s="1">
@@ -8712,7 +8792,7 @@
         <v>692</v>
       </c>
       <c r="AC150" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD150" s="1">
@@ -8738,7 +8818,7 @@
         <v>413</v>
       </c>
       <c r="AC151" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD151" s="1">
@@ -8764,7 +8844,7 @@
         <v>692</v>
       </c>
       <c r="AC152" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD152" s="1">
@@ -8790,7 +8870,7 @@
         <v>413</v>
       </c>
       <c r="AC153" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD153" s="1">
@@ -8816,7 +8896,7 @@
         <v>295</v>
       </c>
       <c r="AC154" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD154" s="1">
@@ -8842,7 +8922,7 @@
         <v>367</v>
       </c>
       <c r="AC155" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD155" s="1">
@@ -8868,7 +8948,7 @@
         <v>197</v>
       </c>
       <c r="AC156" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD156" s="1">
@@ -8894,7 +8974,7 @@
         <v>669</v>
       </c>
       <c r="AC157" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD157" s="1">
@@ -8920,7 +9000,7 @@
         <v>197</v>
       </c>
       <c r="AC158" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD158" s="1">
@@ -8946,7 +9026,7 @@
         <v>692</v>
       </c>
       <c r="AC159" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD159" s="1">
@@ -8972,7 +9052,7 @@
         <v>669</v>
       </c>
       <c r="AC160" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD160" s="1">
@@ -8998,7 +9078,7 @@
         <v>413</v>
       </c>
       <c r="AC161" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD161" s="1">
@@ -9024,7 +9104,7 @@
         <v>521</v>
       </c>
       <c r="AC162" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD162" s="1">
@@ -9050,7 +9130,7 @@
         <v>692</v>
       </c>
       <c r="AC163" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD163" s="1">
@@ -9076,7 +9156,7 @@
         <v>692</v>
       </c>
       <c r="AC164" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD164" s="1">
@@ -9102,7 +9182,7 @@
         <v>295</v>
       </c>
       <c r="AC165" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD165" s="1">
@@ -9128,7 +9208,7 @@
         <v>197</v>
       </c>
       <c r="AC166" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD166" s="1">
@@ -9154,7 +9234,7 @@
         <v>197</v>
       </c>
       <c r="AC167" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD167" s="1">
@@ -9180,7 +9260,7 @@
         <v>692</v>
       </c>
       <c r="AC168" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD168" s="1">
@@ -9206,7 +9286,7 @@
         <v>521</v>
       </c>
       <c r="AC169" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD169" s="1">
@@ -9232,7 +9312,7 @@
         <v>413</v>
       </c>
       <c r="AC170" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD170" s="1">
@@ -9258,7 +9338,7 @@
         <v>692</v>
       </c>
       <c r="AC171" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD171" s="1">
@@ -9284,7 +9364,7 @@
         <v>413</v>
       </c>
       <c r="AC172" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD172" s="1">
@@ -9310,7 +9390,7 @@
         <v>367</v>
       </c>
       <c r="AC173" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD173" s="1">
@@ -9336,7 +9416,7 @@
         <v>367</v>
       </c>
       <c r="AC174" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD174" s="1">
@@ -9362,7 +9442,7 @@
         <v>692</v>
       </c>
       <c r="AC175" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD175" s="1">
@@ -9388,7 +9468,7 @@
         <v>295</v>
       </c>
       <c r="AC176" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD176" s="1">
@@ -9414,7 +9494,7 @@
         <v>692</v>
       </c>
       <c r="AC177" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD177" s="1">
@@ -9440,7 +9520,7 @@
         <v>295</v>
       </c>
       <c r="AC178" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD178" s="1">
@@ -9466,7 +9546,7 @@
         <v>295</v>
       </c>
       <c r="AC179" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD179" s="1">
@@ -9492,7 +9572,7 @@
         <v>692</v>
       </c>
       <c r="AC180" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD180" s="1">
@@ -9518,7 +9598,7 @@
         <v>521</v>
       </c>
       <c r="AC181" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD181" s="1">
@@ -9544,7 +9624,7 @@
         <v>413</v>
       </c>
       <c r="AC182" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD182" s="1">
@@ -9570,7 +9650,7 @@
         <v>413</v>
       </c>
       <c r="AC183" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD183" s="1">
@@ -9596,7 +9676,7 @@
         <v>295</v>
       </c>
       <c r="AC184" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD184" s="1">
@@ -9622,7 +9702,7 @@
         <v>367</v>
       </c>
       <c r="AC185" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD185" s="1">
@@ -9648,7 +9728,7 @@
         <v>692</v>
       </c>
       <c r="AC186" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD186" s="1">
@@ -9674,7 +9754,7 @@
         <v>413</v>
       </c>
       <c r="AC187" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD187" s="1">
@@ -9700,7 +9780,7 @@
         <v>521</v>
       </c>
       <c r="AC188" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD188" s="1">
@@ -9726,7 +9806,7 @@
         <v>413</v>
       </c>
       <c r="AC189" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD189" s="1">
@@ -9752,7 +9832,7 @@
         <v>413</v>
       </c>
       <c r="AC190" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD190" s="1">
@@ -9778,7 +9858,7 @@
         <v>197</v>
       </c>
       <c r="AC191" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD191" s="1">
@@ -9804,7 +9884,7 @@
         <v>521</v>
       </c>
       <c r="AC192" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD192" s="1">
@@ -9830,7 +9910,7 @@
         <v>521</v>
       </c>
       <c r="AC193" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD193" s="1">
@@ -9856,7 +9936,7 @@
         <v>521</v>
       </c>
       <c r="AC194" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD194" s="1">
@@ -9882,7 +9962,7 @@
         <v>521</v>
       </c>
       <c r="AC195" s="1">
-        <f t="shared" ref="AC195:AC258" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y195,1),""))</f>
+        <f t="shared" ref="AC195:AC258" si="4">--ISNUMBER(IFERROR(SEARCH($V$1,Y195,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD195" s="1">
@@ -9908,7 +9988,7 @@
         <v>295</v>
       </c>
       <c r="AC196" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD196" s="1">
@@ -9934,7 +10014,7 @@
         <v>295</v>
       </c>
       <c r="AC197" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD197" s="1">
@@ -9960,7 +10040,7 @@
         <v>521</v>
       </c>
       <c r="AC198" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD198" s="1">
@@ -9986,7 +10066,7 @@
         <v>521</v>
       </c>
       <c r="AC199" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD199" s="1">
@@ -10012,7 +10092,7 @@
         <v>295</v>
       </c>
       <c r="AC200" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD200" s="1">
@@ -10038,7 +10118,7 @@
         <v>692</v>
       </c>
       <c r="AC201" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD201" s="1">
@@ -10064,7 +10144,7 @@
         <v>413</v>
       </c>
       <c r="AC202" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD202" s="1">
@@ -10090,7 +10170,7 @@
         <v>197</v>
       </c>
       <c r="AC203" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD203" s="1">
@@ -10116,7 +10196,7 @@
         <v>367</v>
       </c>
       <c r="AC204" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD204" s="1">
@@ -10142,7 +10222,7 @@
         <v>197</v>
       </c>
       <c r="AC205" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD205" s="1">
@@ -10168,7 +10248,7 @@
         <v>413</v>
       </c>
       <c r="AC206" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD206" s="1">
@@ -10194,7 +10274,7 @@
         <v>521</v>
       </c>
       <c r="AC207" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD207" s="1">
@@ -10220,7 +10300,7 @@
         <v>197</v>
       </c>
       <c r="AC208" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD208" s="1">
@@ -10246,7 +10326,7 @@
         <v>197</v>
       </c>
       <c r="AC209" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD209" s="1">
@@ -10272,7 +10352,7 @@
         <v>692</v>
       </c>
       <c r="AC210" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD210" s="1">
@@ -10298,7 +10378,7 @@
         <v>295</v>
       </c>
       <c r="AC211" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD211" s="1">
@@ -10324,7 +10404,7 @@
         <v>413</v>
       </c>
       <c r="AC212" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD212" s="1">
@@ -10350,7 +10430,7 @@
         <v>413</v>
       </c>
       <c r="AC213" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD213" s="1">
@@ -10376,7 +10456,7 @@
         <v>692</v>
       </c>
       <c r="AC214" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD214" s="1">
@@ -10402,7 +10482,7 @@
         <v>367</v>
       </c>
       <c r="AC215" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD215" s="1">
@@ -10428,7 +10508,7 @@
         <v>197</v>
       </c>
       <c r="AC216" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD216" s="1">
@@ -10454,7 +10534,7 @@
         <v>521</v>
       </c>
       <c r="AC217" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD217" s="1">
@@ -10480,7 +10560,7 @@
         <v>197</v>
       </c>
       <c r="AC218" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD218" s="1">
@@ -10506,7 +10586,7 @@
         <v>413</v>
       </c>
       <c r="AC219" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD219" s="1">
@@ -10532,7 +10612,7 @@
         <v>669</v>
       </c>
       <c r="AC220" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD220" s="1">
@@ -10558,7 +10638,7 @@
         <v>367</v>
       </c>
       <c r="AC221" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD221" s="1">
@@ -10584,7 +10664,7 @@
         <v>521</v>
       </c>
       <c r="AC222" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD222" s="1">
@@ -10610,7 +10690,7 @@
         <v>295</v>
       </c>
       <c r="AC223" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD223" s="1">
@@ -10636,7 +10716,7 @@
         <v>521</v>
       </c>
       <c r="AC224" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD224" s="1">
@@ -10662,7 +10742,7 @@
         <v>413</v>
       </c>
       <c r="AC225" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD225" s="1">
@@ -10688,7 +10768,7 @@
         <v>413</v>
       </c>
       <c r="AC226" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD226" s="1">
@@ -10714,7 +10794,7 @@
         <v>367</v>
       </c>
       <c r="AC227" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD227" s="1">
@@ -10740,7 +10820,7 @@
         <v>413</v>
       </c>
       <c r="AC228" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD228" s="1">
@@ -10766,7 +10846,7 @@
         <v>669</v>
       </c>
       <c r="AC229" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD229" s="1">
@@ -10792,7 +10872,7 @@
         <v>521</v>
       </c>
       <c r="AC230" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD230" s="1">
@@ -10818,7 +10898,7 @@
         <v>669</v>
       </c>
       <c r="AC231" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD231" s="1">
@@ -10844,7 +10924,7 @@
         <v>197</v>
       </c>
       <c r="AC232" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD232" s="1">
@@ -10870,7 +10950,7 @@
         <v>692</v>
       </c>
       <c r="AC233" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD233" s="1">
@@ -10896,7 +10976,7 @@
         <v>692</v>
       </c>
       <c r="AC234" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD234" s="1">
@@ -10922,7 +11002,7 @@
         <v>295</v>
       </c>
       <c r="AC235" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD235" s="1">
@@ -10948,7 +11028,7 @@
         <v>367</v>
       </c>
       <c r="AC236" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD236" s="1">
@@ -10974,7 +11054,7 @@
         <v>413</v>
       </c>
       <c r="AC237" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD237" s="1">
@@ -11000,7 +11080,7 @@
         <v>413</v>
       </c>
       <c r="AC238" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD238" s="1">
@@ -11026,7 +11106,7 @@
         <v>295</v>
       </c>
       <c r="AC239" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD239" s="1">
@@ -11052,7 +11132,7 @@
         <v>692</v>
       </c>
       <c r="AC240" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD240" s="1">
@@ -11078,7 +11158,7 @@
         <v>295</v>
       </c>
       <c r="AC241" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD241" s="1">
@@ -11104,7 +11184,7 @@
         <v>521</v>
       </c>
       <c r="AC242" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD242" s="1">
@@ -11130,7 +11210,7 @@
         <v>197</v>
       </c>
       <c r="AC243" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD243" s="1">
@@ -11156,7 +11236,7 @@
         <v>413</v>
       </c>
       <c r="AC244" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD244" s="1">
@@ -11182,7 +11262,7 @@
         <v>367</v>
       </c>
       <c r="AC245" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD245" s="1">
@@ -11208,7 +11288,7 @@
         <v>413</v>
       </c>
       <c r="AC246" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD246" s="1">
@@ -11234,7 +11314,7 @@
         <v>521</v>
       </c>
       <c r="AC247" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD247" s="1">
@@ -11260,7 +11340,7 @@
         <v>521</v>
       </c>
       <c r="AC248" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD248" s="1">
@@ -11286,7 +11366,7 @@
         <v>521</v>
       </c>
       <c r="AC249" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD249" s="1">
@@ -11312,7 +11392,7 @@
         <v>197</v>
       </c>
       <c r="AC250" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD250" s="1">
@@ -11338,7 +11418,7 @@
         <v>521</v>
       </c>
       <c r="AC251" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD251" s="1">
@@ -11364,7 +11444,7 @@
         <v>295</v>
       </c>
       <c r="AC252" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD252" s="1">
@@ -11390,7 +11470,7 @@
         <v>295</v>
       </c>
       <c r="AC253" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD253" s="1">
@@ -11416,7 +11496,7 @@
         <v>413</v>
       </c>
       <c r="AC254" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD254" s="1">
@@ -11442,7 +11522,7 @@
         <v>692</v>
       </c>
       <c r="AC255" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD255" s="1">
@@ -11468,7 +11548,7 @@
         <v>295</v>
       </c>
       <c r="AC256" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD256" s="1">
@@ -11494,7 +11574,7 @@
         <v>692</v>
       </c>
       <c r="AC257" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD257" s="1">
@@ -11520,7 +11600,7 @@
         <v>692</v>
       </c>
       <c r="AC258" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD258" s="1">
@@ -11546,7 +11626,7 @@
         <v>521</v>
       </c>
       <c r="AC259" s="1">
-        <f t="shared" ref="AC259:AC266" si="4">--ISNUMBER(IFERROR(SEARCH($V$1,Y259,1),""))</f>
+        <f t="shared" ref="AC259:AC266" si="5">--ISNUMBER(IFERROR(SEARCH($V$1,Y259,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD259" s="1">
@@ -11572,7 +11652,7 @@
         <v>367</v>
       </c>
       <c r="AC260" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD260" s="1">
@@ -11598,7 +11678,7 @@
         <v>521</v>
       </c>
       <c r="AC261" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD261" s="1">
@@ -11624,7 +11704,7 @@
         <v>367</v>
       </c>
       <c r="AC262" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD262" s="1">
@@ -11650,7 +11730,7 @@
         <v>521</v>
       </c>
       <c r="AC263" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD263" s="1">
@@ -11676,7 +11756,7 @@
         <v>197</v>
       </c>
       <c r="AC264" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD264" s="1">
@@ -11702,7 +11782,7 @@
         <v>197</v>
       </c>
       <c r="AC265" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD265" s="1">
@@ -11728,7 +11808,7 @@
         <v>521</v>
       </c>
       <c r="AC266" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD266" s="1">
@@ -11741,8 +11821,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WJwAR7NtgqBlHmrwKSisd+zNkD+lnRFobIaWZ0C9j89bfwZuMeBHqHPbeTwDkxLvCf5oSpSDJoOd//aw7Fz5YA==" saltValue="Z1hVP3dKYmYkg55lMSBTRQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6AuxI0UYKcSfv0FrGS8HAtywggcld3vctXAAUPfP5GZ2/grRSZ3zkNxFDvAHfLX7DuLhogNbSmMpxC9AFQN/CQ==" saltValue="tMnuZVJtcNvV3Vrc3RMbrw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -11750,13 +11837,6 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:F15">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -11767,9 +11847,8 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>YEAR(TODAY())-20</formula1>
-      <formula2>YEAR(TODAY())-1</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$P$27:$P$46</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11820,36 +11899,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="52" t="s">
         <v>786</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="6">
         <f>Finance!V2</f>
         <v>0</v>
@@ -11904,48 +11983,48 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="54" t="s">
         <v>757</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="53" t="s">
         <v>778</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="53" t="s">
         <v>768</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53" t="s">
         <v>777</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
         <v>766</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="53" t="s">
         <v>767</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="27" t="s">
         <v>752</v>
       </c>
@@ -11955,7 +12034,7 @@
       <c r="H9" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="9"/>
       <c r="K9" s="30"/>
       <c r="N9" s="1" t="str">
@@ -12218,36 +12297,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="52" t="s">
         <v>786</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="1">
         <f>Finance!V2</f>
         <v>0</v>
@@ -12298,47 +12377,47 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="54" t="s">
         <v>757</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="53" t="s">
         <v>759</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54" t="s">
         <v>751</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="54" t="s">
         <v>747</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
       <c r="N9" s="1" t="str">
         <f>IF(N8=2,"true",IF(N8=3,"false",""))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="20" t="s">
         <v>752</v>
       </c>
@@ -12469,14 +12548,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="str">
+      <c r="A1" s="55" t="str">
         <f>_HtZb6Cg7TXo</f>
         <v>NHWA Module 4</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -14130,32 +14209,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>1082</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="55" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>1080</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="55" t="s">
         <v>1079</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="55" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
